--- a/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47508563521663</v>
+        <v>22.81312410256309</v>
       </c>
       <c r="C2">
-        <v>18.06869579018065</v>
+        <v>10.84353192424609</v>
       </c>
       <c r="D2">
-        <v>3.516188248247631</v>
+        <v>2.74310076258639</v>
       </c>
       <c r="E2">
-        <v>5.659451558997701</v>
+        <v>6.36276914741341</v>
       </c>
       <c r="F2">
-        <v>40.35620353778895</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>35.63132689402028</v>
       </c>
       <c r="I2">
-        <v>25.84832806287303</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.414621922062031</v>
+        <v>5.806529048293704</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.87744001636176</v>
       </c>
       <c r="L2">
-        <v>8.92540746657223</v>
+        <v>7.342780974106384</v>
       </c>
       <c r="M2">
-        <v>14.98099810269159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>14.18520204112295</v>
+      </c>
+      <c r="O2">
+        <v>26.72619447016247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.93840566478154</v>
+        <v>21.51878292892463</v>
       </c>
       <c r="C3">
-        <v>16.75877289839037</v>
+        <v>10.11414621526738</v>
       </c>
       <c r="D3">
-        <v>3.540639856985157</v>
+        <v>2.702992722779209</v>
       </c>
       <c r="E3">
-        <v>5.638360328923043</v>
+        <v>6.380320881534969</v>
       </c>
       <c r="F3">
-        <v>38.3624467051419</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>34.84314268075094</v>
       </c>
       <c r="I3">
-        <v>24.95874349392262</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.42523614929007</v>
+        <v>5.857466176323943</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.86172419282189</v>
       </c>
       <c r="L3">
-        <v>8.526543925462324</v>
+        <v>7.19148353026381</v>
       </c>
       <c r="M3">
-        <v>13.94225320364942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>14.43865988076327</v>
+      </c>
+      <c r="O3">
+        <v>26.23188154922471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.94733389937374</v>
+        <v>20.69882385698576</v>
       </c>
       <c r="C4">
-        <v>15.91569537530581</v>
+        <v>9.642826296335679</v>
       </c>
       <c r="D4">
-        <v>3.557980769477544</v>
+        <v>2.678646587976103</v>
       </c>
       <c r="E4">
-        <v>5.628133840255297</v>
+        <v>6.392968938232182</v>
       </c>
       <c r="F4">
-        <v>37.13224374707635</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>34.38308376589546</v>
       </c>
       <c r="I4">
-        <v>24.42424411602293</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.434701794680333</v>
+        <v>5.889997977648179</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.21820580882706</v>
       </c>
       <c r="L4">
-        <v>8.280783998176076</v>
+        <v>7.100905045805757</v>
       </c>
       <c r="M4">
-        <v>13.27313267297388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>14.59749932562386</v>
+      </c>
+      <c r="O4">
+        <v>25.94835074891266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.53129463937279</v>
+        <v>20.35864804286914</v>
       </c>
       <c r="C5">
-        <v>15.56217625818922</v>
+        <v>9.44480155145235</v>
       </c>
       <c r="D5">
-        <v>3.565582152808205</v>
+        <v>2.668793415397381</v>
       </c>
       <c r="E5">
-        <v>5.624623607703583</v>
+        <v>6.398586292504188</v>
       </c>
       <c r="F5">
-        <v>36.62978005003956</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>34.20159950959825</v>
       </c>
       <c r="I5">
-        <v>24.20941453637596</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.439265595013426</v>
+        <v>5.903573697998207</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.95121192047384</v>
       </c>
       <c r="L5">
-        <v>8.180513286615913</v>
+        <v>7.064602160506846</v>
       </c>
       <c r="M5">
-        <v>12.9924439821631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>14.66306532245986</v>
+      </c>
+      <c r="O5">
+        <v>25.83775270631131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.46147066152444</v>
+        <v>20.30180808093531</v>
       </c>
       <c r="C6">
-        <v>15.50286747772582</v>
+        <v>9.411558366415546</v>
       </c>
       <c r="D6">
-        <v>3.566875287167305</v>
+        <v>2.667161358927753</v>
       </c>
       <c r="E6">
-        <v>5.624079640524299</v>
+        <v>6.399546816312833</v>
       </c>
       <c r="F6">
-        <v>36.54629005775476</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>34.17182556701427</v>
       </c>
       <c r="I6">
-        <v>24.17392392176083</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.440065104563224</v>
+        <v>5.905847270730073</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.9065988189647</v>
       </c>
       <c r="L6">
-        <v>8.163859200773702</v>
+        <v>7.05861159798981</v>
       </c>
       <c r="M6">
-        <v>12.94534783201564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>14.67400393369147</v>
+      </c>
+      <c r="O6">
+        <v>25.8196839801995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94177259446077</v>
+        <v>20.69426010215406</v>
       </c>
       <c r="C7">
-        <v>15.91096827551751</v>
+        <v>9.640179857287091</v>
       </c>
       <c r="D7">
-        <v>3.558081181611104</v>
+        <v>2.67851343165296</v>
       </c>
       <c r="E7">
-        <v>5.628083874943567</v>
+        <v>6.3930428299164</v>
       </c>
       <c r="F7">
-        <v>37.12547141656869</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>34.3806119639985</v>
       </c>
       <c r="I7">
-        <v>24.42133470470469</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.434760527588781</v>
+        <v>5.890179770188309</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.21462392638504</v>
       </c>
       <c r="L7">
-        <v>8.279432065705917</v>
+        <v>7.100412954453951</v>
       </c>
       <c r="M7">
-        <v>13.26937984103145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>14.59838014207837</v>
+      </c>
+      <c r="O7">
+        <v>25.94683928455573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9549721443791</v>
+        <v>22.37223281010356</v>
       </c>
       <c r="C8">
-        <v>17.6249534677363</v>
+        <v>10.59687621771414</v>
       </c>
       <c r="D8">
-        <v>3.52410394182041</v>
+        <v>2.729211591409348</v>
       </c>
       <c r="E8">
-        <v>5.651596883135717</v>
+        <v>6.368428052641251</v>
       </c>
       <c r="F8">
-        <v>39.67019360802058</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>35.35459688380216</v>
       </c>
       <c r="I8">
-        <v>25.53918523068472</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6.417647930372079</v>
+        <v>5.823833187496663</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.53146985408483</v>
       </c>
       <c r="L8">
-        <v>8.788106659265971</v>
+        <v>7.290147517989934</v>
       </c>
       <c r="M8">
-        <v>14.62925271518466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>14.27194476770369</v>
+      </c>
+      <c r="O8">
+        <v>26.55156248572937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.5361932134889</v>
+        <v>25.45279542726987</v>
       </c>
       <c r="C9">
-        <v>20.68863986945397</v>
+        <v>12.28957730792448</v>
       </c>
       <c r="D9">
-        <v>3.478537802186144</v>
+        <v>2.831019169602138</v>
       </c>
       <c r="E9">
-        <v>5.720648209763597</v>
+        <v>6.33536045646807</v>
       </c>
       <c r="F9">
-        <v>44.60270401737744</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>37.45461022916911</v>
       </c>
       <c r="I9">
-        <v>27.8240792442287</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.409200484402425</v>
+        <v>5.703562530175058</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.94859470354477</v>
       </c>
       <c r="L9">
-        <v>9.775889794290055</v>
+        <v>7.679549414731726</v>
       </c>
       <c r="M9">
-        <v>17.05443096529295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.6559586706694</v>
+      </c>
+      <c r="O9">
+        <v>27.89929765626335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.96017229777809</v>
+        <v>27.57979455330191</v>
       </c>
       <c r="C10">
-        <v>22.77418733668978</v>
+        <v>13.42595926786509</v>
       </c>
       <c r="D10">
-        <v>3.462078555065803</v>
+        <v>2.90760014036378</v>
       </c>
       <c r="E10">
-        <v>5.787371342720323</v>
+        <v>6.320863669366464</v>
       </c>
       <c r="F10">
-        <v>48.18835649513277</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>39.11450214073157</v>
       </c>
       <c r="I10">
-        <v>29.56255358360569</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.420933975600134</v>
+        <v>5.621006928627354</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.78160950959762</v>
       </c>
       <c r="L10">
-        <v>10.49364387513795</v>
+        <v>7.974944916312405</v>
       </c>
       <c r="M10">
-        <v>18.70003957653978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>13.21618060037951</v>
+      </c>
+      <c r="O10">
+        <v>28.9927773839331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.02211233328181</v>
+        <v>28.51727101274118</v>
       </c>
       <c r="C11">
-        <v>23.69117568908665</v>
+        <v>13.92079387934365</v>
       </c>
       <c r="D11">
-        <v>3.459405243261068</v>
+        <v>2.942930028826825</v>
       </c>
       <c r="E11">
-        <v>5.821695177048211</v>
+        <v>6.316525211782433</v>
       </c>
       <c r="F11">
-        <v>49.8136612875571</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>39.89557712627897</v>
       </c>
       <c r="I11">
-        <v>30.3682809446098</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.430833486450283</v>
+        <v>5.584669773208054</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.61218003693042</v>
       </c>
       <c r="L11">
-        <v>10.86610715925586</v>
+        <v>8.111143715154236</v>
       </c>
       <c r="M11">
-        <v>19.42197357015306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>13.01846365651219</v>
+      </c>
+      <c r="O11">
+        <v>29.513757583284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.41878517075804</v>
+        <v>28.8679598419208</v>
       </c>
       <c r="C12">
-        <v>24.03425038126397</v>
+        <v>14.10510217998859</v>
       </c>
       <c r="D12">
-        <v>3.459196404440312</v>
+        <v>2.95639063735175</v>
       </c>
       <c r="E12">
-        <v>5.835310716528969</v>
+        <v>6.315218624001615</v>
       </c>
       <c r="F12">
-        <v>50.42869856243436</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>40.19516025019148</v>
       </c>
       <c r="I12">
-        <v>30.67578272992975</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.435301782151169</v>
+        <v>5.571081605455586</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.9215069429143</v>
       </c>
       <c r="L12">
-        <v>11.02305723212617</v>
+        <v>8.162968984585122</v>
       </c>
       <c r="M12">
-        <v>19.69179498888244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.94389544425251</v>
+      </c>
+      <c r="O12">
+        <v>29.71453103026832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.33359052076892</v>
+        <v>28.79262379033362</v>
       </c>
       <c r="C13">
-        <v>23.96054161470618</v>
+        <v>14.06554305541094</v>
       </c>
       <c r="D13">
-        <v>3.459203694377011</v>
+        <v>2.953487806532831</v>
       </c>
       <c r="E13">
-        <v>5.832350079408225</v>
+        <v>6.315484864031898</v>
       </c>
       <c r="F13">
-        <v>50.29624996315207</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>40.13046884103735</v>
       </c>
       <c r="I13">
-        <v>30.60944543480813</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.434306353709486</v>
+        <v>5.574000465502372</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.855116068255</v>
       </c>
       <c r="L13">
-        <v>10.98933953642789</v>
+        <v>8.151796515552203</v>
       </c>
       <c r="M13">
-        <v>19.63383762345973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.95994210218465</v>
+      </c>
+      <c r="O13">
+        <v>29.67113381648742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.05485381434852</v>
+        <v>28.54620857315404</v>
       </c>
       <c r="C14">
-        <v>23.71948173515176</v>
+        <v>13.93601801844324</v>
       </c>
       <c r="D14">
-        <v>3.459371261867</v>
+        <v>2.944035726477282</v>
       </c>
       <c r="E14">
-        <v>5.822802664219192</v>
+        <v>6.316410906481212</v>
       </c>
       <c r="F14">
-        <v>49.86426641119694</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>39.92014718174141</v>
       </c>
       <c r="I14">
-        <v>30.39352963532887</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.431186282097332</v>
+        <v>5.583548439314814</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.63773163540961</v>
       </c>
       <c r="L14">
-        <v>10.87905780324839</v>
+        <v>8.11540245709805</v>
       </c>
       <c r="M14">
-        <v>19.44424156150521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>13.01232300536082</v>
+      </c>
+      <c r="O14">
+        <v>29.53020473708498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.88342111284674</v>
+        <v>28.3947117343439</v>
       </c>
       <c r="C15">
-        <v>23.5712953759769</v>
+        <v>13.85628305895574</v>
       </c>
       <c r="D15">
-        <v>3.459582125853964</v>
+        <v>2.938257097690705</v>
       </c>
       <c r="E15">
-        <v>5.817036546505065</v>
+        <v>6.317022299502768</v>
       </c>
       <c r="F15">
-        <v>49.59962318228227</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>39.79181756987079</v>
       </c>
       <c r="I15">
-        <v>30.26159524687576</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.429370878769097</v>
+        <v>5.589419142980072</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.50390622603144</v>
       </c>
       <c r="L15">
-        <v>10.81125697838703</v>
+        <v>8.09314229673449</v>
       </c>
       <c r="M15">
-        <v>19.32765378758669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>13.04444627638058</v>
+      </c>
+      <c r="O15">
+        <v>29.44433945016717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.88998499197759</v>
+        <v>27.51792272043068</v>
       </c>
       <c r="C16">
-        <v>22.71365385214104</v>
+        <v>13.39318443142395</v>
       </c>
       <c r="D16">
-        <v>3.462359269885953</v>
+        <v>2.905302057512983</v>
       </c>
       <c r="E16">
-        <v>5.78521198223258</v>
+        <v>6.321193587524703</v>
       </c>
       <c r="F16">
-        <v>48.08205248351759</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>39.0639851617799</v>
       </c>
       <c r="I16">
-        <v>29.5102162533099</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.420384074675345</v>
+        <v>5.623405880546647</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.72659419445515</v>
       </c>
       <c r="L16">
-        <v>10.47238033482583</v>
+        <v>7.966079499786359</v>
       </c>
       <c r="M16">
-        <v>18.65234559902039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>13.22914607893862</v>
+      </c>
+      <c r="O16">
+        <v>28.95921236805892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.27037597465328</v>
+        <v>26.97232620175016</v>
       </c>
       <c r="C17">
-        <v>22.17965376636405</v>
+        <v>13.10349631241052</v>
       </c>
       <c r="D17">
-        <v>3.465370038019886</v>
+        <v>2.885218558819505</v>
       </c>
       <c r="E17">
-        <v>5.766737324438431</v>
+        <v>6.324338511003671</v>
       </c>
       <c r="F17">
-        <v>47.14981331506737</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>38.62417819144662</v>
       </c>
       <c r="I17">
-        <v>29.05323217712664</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.416082217032569</v>
+        <v>5.644565294210905</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.24031593738065</v>
       </c>
       <c r="L17">
-        <v>10.28585943569918</v>
+        <v>7.888586886672555</v>
       </c>
       <c r="M17">
-        <v>18.23142085216186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>13.34302883004455</v>
+      </c>
+      <c r="O17">
+        <v>28.66770194771284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.91013189502824</v>
+        <v>26.65567568084217</v>
       </c>
       <c r="C18">
-        <v>21.86949710884518</v>
+        <v>12.93478725354428</v>
       </c>
       <c r="D18">
-        <v>3.467547308062181</v>
+        <v>2.873712648151757</v>
       </c>
       <c r="E18">
-        <v>5.756481871682715</v>
+        <v>6.326358983587308</v>
       </c>
       <c r="F18">
-        <v>46.61303062560081</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>38.37365238075171</v>
       </c>
       <c r="I18">
-        <v>28.79176827735301</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.414033059803367</v>
+        <v>5.656850448644779</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.95710902821655</v>
       </c>
       <c r="L18">
-        <v>10.17842463524228</v>
+        <v>7.844187109192699</v>
       </c>
       <c r="M18">
-        <v>17.9867880388257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>13.40875346933623</v>
+      </c>
+      <c r="O18">
+        <v>28.50224246410311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.78748499005917</v>
+        <v>26.54797615656464</v>
       </c>
       <c r="C19">
-        <v>21.76395459993303</v>
+        <v>12.87730361509</v>
       </c>
       <c r="D19">
-        <v>3.468357892928368</v>
+        <v>2.869824475689555</v>
       </c>
       <c r="E19">
-        <v>5.753071880234025</v>
+        <v>6.327079078525786</v>
       </c>
       <c r="F19">
-        <v>46.43117553634833</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>38.28924601850402</v>
       </c>
       <c r="I19">
-        <v>28.70347216721141</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.413410458573304</v>
+        <v>5.661029807711094</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.86061223198043</v>
       </c>
       <c r="L19">
-        <v>10.1420217842543</v>
+        <v>7.829184093113027</v>
       </c>
       <c r="M19">
-        <v>17.90351762358505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>13.43104591086798</v>
+      </c>
+      <c r="O19">
+        <v>28.44659739649806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.33673133869265</v>
+        <v>27.03069962401072</v>
       </c>
       <c r="C20">
-        <v>22.23680823267481</v>
+        <v>13.13454949526833</v>
       </c>
       <c r="D20">
-        <v>3.46500266963852</v>
+        <v>2.887351691008083</v>
       </c>
       <c r="E20">
-        <v>5.76866529800194</v>
+        <v>6.323981746680356</v>
       </c>
       <c r="F20">
-        <v>47.24910976483685</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>38.67074350742104</v>
       </c>
       <c r="I20">
-        <v>29.10173443624199</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.416495719041533</v>
+        <v>5.642300978124766</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.29244353228467</v>
       </c>
       <c r="L20">
-        <v>10.30573046679437</v>
+        <v>7.89681841956658</v>
       </c>
       <c r="M20">
-        <v>18.27648878382423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>13.33088305490347</v>
+      </c>
+      <c r="O20">
+        <v>28.69850436046763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.13687030255993</v>
+        <v>28.61870338735429</v>
       </c>
       <c r="C21">
-        <v>23.79039657572885</v>
+        <v>13.97414522106837</v>
       </c>
       <c r="D21">
-        <v>3.459299266831533</v>
+        <v>2.946809706768102</v>
       </c>
       <c r="E21">
-        <v>5.825589801305489</v>
+        <v>6.316129678664696</v>
       </c>
       <c r="F21">
-        <v>49.9911579719562</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>39.98181969195794</v>
       </c>
       <c r="I21">
-        <v>30.45688201617048</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.432082647677126</v>
+        <v>5.580739327676227</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.70172227550024</v>
       </c>
       <c r="L21">
-        <v>10.91150200251168</v>
+        <v>8.126085567296549</v>
       </c>
       <c r="M21">
-        <v>19.50002473551845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.99692950965662</v>
+      </c>
+      <c r="O21">
+        <v>29.57150339617642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.28176206469783</v>
+        <v>29.631456388443</v>
       </c>
       <c r="C22">
-        <v>24.78168372714724</v>
+        <v>14.50500401434861</v>
       </c>
       <c r="D22">
-        <v>3.460319351036613</v>
+        <v>2.986153620689077</v>
       </c>
       <c r="E22">
-        <v>5.866420726390281</v>
+        <v>6.312964371941609</v>
       </c>
       <c r="F22">
-        <v>51.78106112222557</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>40.86093358072212</v>
       </c>
       <c r="I22">
-        <v>31.3566677143625</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.446499321968235</v>
+        <v>5.541505821097198</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.59259043032092</v>
       </c>
       <c r="L22">
-        <v>11.36487993913451</v>
+        <v>8.277378911845428</v>
       </c>
       <c r="M22">
-        <v>20.27908711274119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12.78042193805818</v>
+      </c>
+      <c r="O22">
+        <v>30.162462338751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.67345708332444</v>
+        <v>29.09320995331835</v>
       </c>
       <c r="C23">
-        <v>24.25467173863847</v>
+        <v>14.22327179279355</v>
       </c>
       <c r="D23">
-        <v>3.459299233442593</v>
+        <v>2.965106353997545</v>
       </c>
       <c r="E23">
-        <v>5.844279528899335</v>
+        <v>6.314469617529304</v>
       </c>
       <c r="F23">
-        <v>50.82577243693197</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>40.38966512320062</v>
       </c>
       <c r="I23">
-        <v>30.87503581959282</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.438394692386199</v>
+        <v>5.562354995566236</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.11982147460433</v>
       </c>
       <c r="L23">
-        <v>11.12387893363896</v>
+        <v>8.196500371528918</v>
       </c>
       <c r="M23">
-        <v>19.86506937091004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>12.89582691776461</v>
+      </c>
+      <c r="O23">
+        <v>29.84514982648961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.30674463737971</v>
+        <v>27.00431828190323</v>
       </c>
       <c r="C24">
-        <v>22.210978548024</v>
+        <v>13.12051709789461</v>
       </c>
       <c r="D24">
-        <v>3.465167374842841</v>
+        <v>2.886387177034843</v>
       </c>
       <c r="E24">
-        <v>5.767792524985045</v>
+        <v>6.324142379090125</v>
       </c>
       <c r="F24">
-        <v>47.20422044099243</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>38.6496840908266</v>
       </c>
       <c r="I24">
-        <v>29.07980265062962</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.41630745870152</v>
+        <v>5.643324300399119</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.26888799321618</v>
       </c>
       <c r="L24">
-        <v>10.29674740450138</v>
+        <v>7.893096469849128</v>
       </c>
       <c r="M24">
-        <v>18.25612180754164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>13.3363733725928</v>
+      </c>
+      <c r="O24">
+        <v>28.68457195102415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.60504521066435</v>
+        <v>24.64298590587198</v>
       </c>
       <c r="C25">
-        <v>19.8901317354727</v>
+        <v>11.85084939515819</v>
       </c>
       <c r="D25">
-        <v>3.488214065305106</v>
+        <v>2.803193382590992</v>
       </c>
       <c r="E25">
-        <v>5.699315101853996</v>
+        <v>6.342626318047416</v>
       </c>
       <c r="F25">
-        <v>43.27534621590008</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>36.86606589425212</v>
       </c>
       <c r="I25">
-        <v>27.19587232262535</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6.408541874345497</v>
+        <v>5.735065328163265</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.31322903877106</v>
       </c>
       <c r="L25">
-        <v>9.510019036805678</v>
+        <v>7.572490165943112</v>
       </c>
       <c r="M25">
-        <v>16.42314871375725</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.82021111346828</v>
+      </c>
+      <c r="O25">
+        <v>27.51689753108764</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.81312410256309</v>
+        <v>13.02865749216461</v>
       </c>
       <c r="C2">
-        <v>10.84353192424609</v>
+        <v>8.270701207660078</v>
       </c>
       <c r="D2">
-        <v>2.74310076258639</v>
+        <v>5.456141542527863</v>
       </c>
       <c r="E2">
-        <v>6.36276914741341</v>
+        <v>8.293401628827088</v>
       </c>
       <c r="F2">
-        <v>35.63132689402028</v>
+        <v>22.244827973684</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.806529048293704</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.87744001636176</v>
+        <v>10.93054926734921</v>
       </c>
       <c r="L2">
-        <v>7.342780974106384</v>
+        <v>6.200237869560045</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.535334613274424</v>
       </c>
       <c r="N2">
-        <v>14.18520204112295</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>26.72619447016247</v>
+        <v>18.54536884568096</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.51878292892463</v>
+        <v>12.14721684026289</v>
       </c>
       <c r="C3">
-        <v>10.11414621526738</v>
+        <v>8.286390645208998</v>
       </c>
       <c r="D3">
-        <v>2.702992722779209</v>
+        <v>5.358005096541336</v>
       </c>
       <c r="E3">
-        <v>6.380320881534969</v>
+        <v>8.309187940246957</v>
       </c>
       <c r="F3">
-        <v>34.84314268075094</v>
+        <v>21.98560378251208</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.857466176323943</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.86172419282189</v>
+        <v>10.35267030550943</v>
       </c>
       <c r="L3">
-        <v>7.19148353026381</v>
+        <v>6.122763693432133</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.216541102361258</v>
       </c>
       <c r="N3">
-        <v>14.43865988076327</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>26.23188154922471</v>
+        <v>18.54808908866256</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.69882385698576</v>
+        <v>11.5741612045078</v>
       </c>
       <c r="C4">
-        <v>9.642826296335679</v>
+        <v>8.296968973784827</v>
       </c>
       <c r="D4">
-        <v>2.678646587976103</v>
+        <v>5.296382570148794</v>
       </c>
       <c r="E4">
-        <v>6.392968938232182</v>
+        <v>8.322898125828196</v>
       </c>
       <c r="F4">
-        <v>34.38308376589546</v>
+        <v>21.84290131022816</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.889997977648179</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.21820580882706</v>
+        <v>9.980656685709173</v>
       </c>
       <c r="L4">
-        <v>7.100905045805757</v>
+        <v>6.077463649611607</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.019021335792253</v>
       </c>
       <c r="N4">
-        <v>14.59749932562386</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>25.94835074891266</v>
+        <v>18.56329929784323</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.35864804286914</v>
+        <v>11.33257833071471</v>
       </c>
       <c r="C5">
-        <v>9.44480155145235</v>
+        <v>8.301515826958934</v>
       </c>
       <c r="D5">
-        <v>2.668793415397381</v>
+        <v>5.270942933832521</v>
       </c>
       <c r="E5">
-        <v>6.398586292504188</v>
+        <v>8.329471110513644</v>
       </c>
       <c r="F5">
-        <v>34.20159950959825</v>
+        <v>21.78883097068293</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.903573697998207</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.95121192047384</v>
+        <v>9.824800601241142</v>
       </c>
       <c r="L5">
-        <v>7.064602160506846</v>
+        <v>6.0595818195524</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.938199565594113</v>
       </c>
       <c r="N5">
-        <v>14.66306532245986</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>25.83775270631131</v>
+        <v>18.57278332036137</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.30180808093531</v>
+        <v>11.29197554982331</v>
       </c>
       <c r="C6">
-        <v>9.411558366415546</v>
+        <v>8.302285046977394</v>
       </c>
       <c r="D6">
-        <v>2.667161358927753</v>
+        <v>5.266699365606143</v>
       </c>
       <c r="E6">
-        <v>6.399546816312833</v>
+        <v>8.330621396463837</v>
       </c>
       <c r="F6">
-        <v>34.17182556701427</v>
+        <v>21.78009727551543</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.905847270730073</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.9065988189647</v>
+        <v>9.798665942782389</v>
       </c>
       <c r="L6">
-        <v>7.05861159798981</v>
+        <v>6.056647684154102</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.924762770009385</v>
       </c>
       <c r="N6">
-        <v>14.67400393369147</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>25.8196839801995</v>
+        <v>18.57455310443649</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.69426010215406</v>
+        <v>11.57093582570627</v>
       </c>
       <c r="C7">
-        <v>9.640179857287091</v>
+        <v>8.297029340162009</v>
       </c>
       <c r="D7">
-        <v>2.67851343165296</v>
+        <v>5.296040788996781</v>
       </c>
       <c r="E7">
-        <v>6.3930428299164</v>
+        <v>8.322982811036065</v>
       </c>
       <c r="F7">
-        <v>34.3806119639985</v>
+        <v>21.84215565483917</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.890179770188309</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.21462392638504</v>
+        <v>9.978571894833687</v>
       </c>
       <c r="L7">
-        <v>7.100412954453951</v>
+        <v>6.077220138197983</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.017932524154684</v>
       </c>
       <c r="N7">
-        <v>14.59838014207837</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>25.94683928455573</v>
+        <v>18.56341405613045</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.37223281010356</v>
+        <v>12.73131650689217</v>
       </c>
       <c r="C8">
-        <v>10.59687621771414</v>
+        <v>8.275913837185046</v>
       </c>
       <c r="D8">
-        <v>2.729211591409348</v>
+        <v>5.422596801444866</v>
       </c>
       <c r="E8">
-        <v>6.368428052641251</v>
+        <v>8.297996308298515</v>
       </c>
       <c r="F8">
-        <v>35.35459688380216</v>
+        <v>22.15199960246258</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.823833187496663</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.53146985408483</v>
+        <v>10.73489951202983</v>
       </c>
       <c r="L8">
-        <v>7.290147517989934</v>
+        <v>6.173058662234391</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.425850947731004</v>
       </c>
       <c r="N8">
-        <v>14.27194476770369</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>26.55156248572937</v>
+        <v>18.54342505120565</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.45279542726987</v>
+        <v>14.75640718404582</v>
       </c>
       <c r="C9">
-        <v>12.28957730792448</v>
+        <v>8.242081492137462</v>
       </c>
       <c r="D9">
-        <v>2.831019169602138</v>
+        <v>5.659290186710745</v>
       </c>
       <c r="E9">
-        <v>6.33536045646807</v>
+        <v>8.281971431907689</v>
       </c>
       <c r="F9">
-        <v>37.45461022916911</v>
+        <v>22.89225423572326</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.703562530175058</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.94859470354477</v>
+        <v>12.0795563910268</v>
       </c>
       <c r="L9">
-        <v>7.679549414731726</v>
+        <v>6.378626962773574</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.2070346769995</v>
       </c>
       <c r="N9">
-        <v>13.6559586706694</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>27.89929765626335</v>
+        <v>18.61696272542427</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.57979455330191</v>
+        <v>16.09481203865878</v>
       </c>
       <c r="C10">
-        <v>13.42595926786509</v>
+        <v>8.221964163652972</v>
       </c>
       <c r="D10">
-        <v>2.90760014036378</v>
+        <v>5.825398113678553</v>
       </c>
       <c r="E10">
-        <v>6.320863669366464</v>
+        <v>8.291825945133571</v>
       </c>
       <c r="F10">
-        <v>39.11450214073157</v>
+        <v>23.5190965523963</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.621006928627354</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.78160950959762</v>
+        <v>12.98124568755138</v>
       </c>
       <c r="L10">
-        <v>7.974944916312405</v>
+        <v>6.539863344310922</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.76409188381758</v>
       </c>
       <c r="N10">
-        <v>13.21618060037951</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>28.9927773839331</v>
+        <v>18.74692229037507</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.51727101274118</v>
+        <v>16.67195842441576</v>
       </c>
       <c r="C11">
-        <v>13.92079387934365</v>
+        <v>8.213872270967746</v>
       </c>
       <c r="D11">
-        <v>2.942930028826825</v>
+        <v>5.899125090880911</v>
       </c>
       <c r="E11">
-        <v>6.316525211782433</v>
+        <v>8.30133897073941</v>
       </c>
       <c r="F11">
-        <v>39.89557712627897</v>
+        <v>23.82256110577338</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.584669773208054</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.61218003693042</v>
+        <v>13.37257408766636</v>
       </c>
       <c r="L11">
-        <v>8.111143715154236</v>
+        <v>6.615308507248499</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.01290805408552</v>
       </c>
       <c r="N11">
-        <v>13.01846365651219</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>29.513757583284</v>
+        <v>18.82405277026341</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.8679598419208</v>
+        <v>16.88600998329613</v>
       </c>
       <c r="C12">
-        <v>14.10510217998859</v>
+        <v>8.210963364855218</v>
       </c>
       <c r="D12">
-        <v>2.95639063735175</v>
+        <v>5.92676833202955</v>
       </c>
       <c r="E12">
-        <v>6.315218624001615</v>
+        <v>8.305692404498728</v>
       </c>
       <c r="F12">
-        <v>40.19516025019148</v>
+        <v>23.94012112820186</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.571081605455586</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.9215069429143</v>
+        <v>13.5180473540305</v>
       </c>
       <c r="L12">
-        <v>8.162968984585122</v>
+        <v>6.644168963245385</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.10640367294317</v>
       </c>
       <c r="N12">
-        <v>12.94389544425251</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>29.71453103026832</v>
+        <v>18.85597259178926</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.79262379033362</v>
+        <v>16.84010941297527</v>
       </c>
       <c r="C13">
-        <v>14.06554305541094</v>
+        <v>8.21158289188228</v>
       </c>
       <c r="D13">
-        <v>2.953487806532831</v>
+        <v>5.920827293542833</v>
       </c>
       <c r="E13">
-        <v>6.315484864031898</v>
+        <v>8.304720965807565</v>
       </c>
       <c r="F13">
-        <v>40.13046884103735</v>
+        <v>23.91468471046548</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.574000465502372</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.855116068255</v>
+        <v>13.48683776842913</v>
       </c>
       <c r="L13">
-        <v>8.151796515552203</v>
+        <v>6.637940569814993</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.08630092436548</v>
       </c>
       <c r="N13">
-        <v>12.95994210218465</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>29.67113381648742</v>
+        <v>18.84897553373635</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.54620857315404</v>
+        <v>16.68965845225214</v>
       </c>
       <c r="C14">
-        <v>13.93601801844324</v>
+        <v>8.213629822753704</v>
       </c>
       <c r="D14">
-        <v>2.944035726477282</v>
+        <v>5.901404901951373</v>
       </c>
       <c r="E14">
-        <v>6.316410906481212</v>
+        <v>8.301681917941515</v>
       </c>
       <c r="F14">
-        <v>39.92014718174141</v>
+        <v>23.83217978537034</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.583548439314814</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>22.63773163540961</v>
+        <v>13.38459664925815</v>
       </c>
       <c r="L14">
-        <v>8.11540245709805</v>
+        <v>6.617677101545658</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.02061487621304</v>
       </c>
       <c r="N14">
-        <v>13.01232300536082</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>29.53020473708498</v>
+        <v>18.82662378288915</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.3947117343439</v>
+        <v>16.59691842940453</v>
       </c>
       <c r="C15">
-        <v>13.85628305895574</v>
+        <v>8.214903946607574</v>
       </c>
       <c r="D15">
-        <v>2.938257097690705</v>
+        <v>5.889471915665323</v>
       </c>
       <c r="E15">
-        <v>6.317022299502768</v>
+        <v>8.299919052271219</v>
       </c>
       <c r="F15">
-        <v>39.79181756987079</v>
+        <v>23.78198781637392</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.589419142980072</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.50390622603144</v>
+        <v>13.32161757233614</v>
       </c>
       <c r="L15">
-        <v>8.09314229673449</v>
+        <v>6.605302731163716</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.98028400769233</v>
       </c>
       <c r="N15">
-        <v>13.04444627638058</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>29.44433945016717</v>
+        <v>18.81328949520411</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.51792272043068</v>
+        <v>16.05646112078904</v>
       </c>
       <c r="C16">
-        <v>13.39318443142395</v>
+        <v>8.222514555057158</v>
       </c>
       <c r="D16">
-        <v>2.905302057512983</v>
+        <v>5.820541924008181</v>
       </c>
       <c r="E16">
-        <v>6.321193587524703</v>
+        <v>8.291307828242001</v>
       </c>
       <c r="F16">
-        <v>39.0639851617799</v>
+        <v>23.49963396702811</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.623405880546647</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.72659419445515</v>
+        <v>12.95529161250874</v>
       </c>
       <c r="L16">
-        <v>7.966079499786359</v>
+        <v>6.534974119918881</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.74773293908688</v>
       </c>
       <c r="N16">
-        <v>13.22914607893862</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>28.95921236805892</v>
+        <v>18.74225454605444</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.97232620175016</v>
+        <v>15.71682894974616</v>
       </c>
       <c r="C17">
-        <v>13.10349631241052</v>
+        <v>8.227456810275587</v>
       </c>
       <c r="D17">
-        <v>2.885218558819505</v>
+        <v>5.777776769140157</v>
       </c>
       <c r="E17">
-        <v>6.324338511003671</v>
+        <v>8.287333081854191</v>
       </c>
       <c r="F17">
-        <v>38.62417819144662</v>
+        <v>23.33111841737511</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.644565294210905</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.24031593738065</v>
+        <v>12.72572867265951</v>
       </c>
       <c r="L17">
-        <v>7.888586886672555</v>
+        <v>6.492359416315647</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.60384451179375</v>
       </c>
       <c r="N17">
-        <v>13.34302883004455</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>28.66770194771284</v>
+        <v>18.70337746063943</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.65567568084217</v>
+        <v>15.51849415974317</v>
       </c>
       <c r="C18">
-        <v>12.93478725354428</v>
+        <v>8.230399003813391</v>
       </c>
       <c r="D18">
-        <v>2.873712648151757</v>
+        <v>5.753007160778027</v>
       </c>
       <c r="E18">
-        <v>6.326358983587308</v>
+        <v>8.285518696218734</v>
       </c>
       <c r="F18">
-        <v>38.37365238075171</v>
+        <v>23.23591588382549</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.656850448644779</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.95710902821655</v>
+        <v>12.59191509887438</v>
       </c>
       <c r="L18">
-        <v>7.844187109192699</v>
+        <v>6.468046657001271</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.52065472192323</v>
       </c>
       <c r="N18">
-        <v>13.40875346933623</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>28.50224246410311</v>
+        <v>18.68270448359755</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.54797615656464</v>
+        <v>15.45082661190633</v>
       </c>
       <c r="C19">
-        <v>12.87730361509</v>
+        <v>8.231412190680592</v>
       </c>
       <c r="D19">
-        <v>2.869824475689555</v>
+        <v>5.744591384650813</v>
       </c>
       <c r="E19">
-        <v>6.327079078525786</v>
+        <v>8.284984566576407</v>
       </c>
       <c r="F19">
-        <v>38.28924601850402</v>
+        <v>23.20397747583263</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.661029807711094</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.86061223198043</v>
+        <v>12.54630348036598</v>
       </c>
       <c r="L19">
-        <v>7.829184093113027</v>
+        <v>6.459849128103813</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.49241657207057</v>
       </c>
       <c r="N19">
-        <v>13.43104591086798</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>28.44659739649806</v>
+        <v>18.67599115096102</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.03069962401072</v>
+        <v>15.75329214411446</v>
       </c>
       <c r="C20">
-        <v>13.13454949526833</v>
+        <v>8.226920376400326</v>
       </c>
       <c r="D20">
-        <v>2.887351691008083</v>
+        <v>5.782347103768931</v>
       </c>
       <c r="E20">
-        <v>6.323981746680356</v>
+        <v>8.287707172903579</v>
       </c>
       <c r="F20">
-        <v>38.67074350742104</v>
+        <v>23.34887874955752</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.642300978124766</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.29244353228467</v>
+        <v>12.75034979670335</v>
       </c>
       <c r="L20">
-        <v>7.89681841956658</v>
+        <v>6.496875401192071</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.61920658352488</v>
       </c>
       <c r="N20">
-        <v>13.33088305490347</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>28.69850436046763</v>
+        <v>18.70734039116785</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.61870338735429</v>
+        <v>16.73397124357293</v>
       </c>
       <c r="C21">
-        <v>13.97414522106837</v>
+        <v>8.213024349270832</v>
       </c>
       <c r="D21">
-        <v>2.946809706768102</v>
+        <v>5.907117294521701</v>
       </c>
       <c r="E21">
-        <v>6.316129678664696</v>
+        <v>8.30255395372429</v>
       </c>
       <c r="F21">
-        <v>39.98181969195794</v>
+        <v>23.85634163516652</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.580739327676227</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.70172227550024</v>
+        <v>13.41470099533421</v>
       </c>
       <c r="L21">
-        <v>8.126085567296549</v>
+        <v>6.623621158206299</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.03992862514435</v>
       </c>
       <c r="N21">
-        <v>12.99692950965662</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>29.57150339617642</v>
+        <v>18.83311446033486</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.631456388443</v>
+        <v>17.34869291031631</v>
       </c>
       <c r="C22">
-        <v>14.50500401434861</v>
+        <v>8.204849388444767</v>
       </c>
       <c r="D22">
-        <v>2.986153620689077</v>
+        <v>5.987051009919185</v>
       </c>
       <c r="E22">
-        <v>6.312964371941609</v>
+        <v>8.316648050109114</v>
       </c>
       <c r="F22">
-        <v>40.86093358072212</v>
+        <v>24.20341582147581</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.541505821097198</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.59259043032092</v>
+        <v>13.83307578360326</v>
       </c>
       <c r="L22">
-        <v>8.277378911845428</v>
+        <v>6.708148505424089</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.32854475446593</v>
       </c>
       <c r="N22">
-        <v>12.78042193805818</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>30.162462338751</v>
+        <v>18.93117929962097</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.09320995331835</v>
+        <v>17.02298308891674</v>
       </c>
       <c r="C23">
-        <v>14.22327179279355</v>
+        <v>8.209128485112592</v>
       </c>
       <c r="D23">
-        <v>2.965106353997545</v>
+        <v>5.944539806983571</v>
       </c>
       <c r="E23">
-        <v>6.314469617529304</v>
+        <v>8.308714744715335</v>
       </c>
       <c r="F23">
-        <v>40.38966512320062</v>
+        <v>24.01676210727571</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.562354995566236</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.11982147460433</v>
+        <v>13.61122757754889</v>
       </c>
       <c r="L23">
-        <v>8.196500371528918</v>
+        <v>6.662883274117752</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.16656523628616</v>
       </c>
       <c r="N23">
-        <v>12.89582691776461</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>29.84514982648961</v>
+        <v>18.87734872336285</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.00431828190323</v>
+        <v>15.73681671846696</v>
       </c>
       <c r="C24">
-        <v>13.12051709789461</v>
+        <v>8.227162584327022</v>
       </c>
       <c r="D24">
-        <v>2.886387177034843</v>
+        <v>5.780281425697424</v>
       </c>
       <c r="E24">
-        <v>6.324142379090125</v>
+        <v>8.287536582156863</v>
       </c>
       <c r="F24">
-        <v>38.6496840908266</v>
+        <v>23.34084407362652</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.643324300399119</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.26888799321618</v>
+        <v>12.73922430113988</v>
       </c>
       <c r="L24">
-        <v>7.893096469849128</v>
+        <v>6.49483314114454</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.61226283860334</v>
       </c>
       <c r="N24">
-        <v>13.3363733725928</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>28.68457195102415</v>
+        <v>18.70554353302603</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.64298590587198</v>
+        <v>14.23504567028225</v>
       </c>
       <c r="C25">
-        <v>11.85084939515819</v>
+        <v>8.250411371271682</v>
       </c>
       <c r="D25">
-        <v>2.803193382590992</v>
+        <v>5.596572842914306</v>
       </c>
       <c r="E25">
-        <v>6.342626318047416</v>
+        <v>8.282620005264334</v>
       </c>
       <c r="F25">
-        <v>36.86606589425212</v>
+        <v>22.67754061619501</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.735065328163265</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.31322903877106</v>
+        <v>11.73084988525614</v>
       </c>
       <c r="L25">
-        <v>7.572490165943112</v>
+        <v>6.321181912720444</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.998313749080062</v>
       </c>
       <c r="N25">
-        <v>13.82021111346828</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>27.51689753108764</v>
+        <v>18.58425212307813</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02865749216461</v>
+        <v>12.22224168450624</v>
       </c>
       <c r="C2">
-        <v>8.270701207660078</v>
+        <v>10.71512280286241</v>
       </c>
       <c r="D2">
-        <v>5.456141542527863</v>
+        <v>6.366890670965001</v>
       </c>
       <c r="E2">
-        <v>8.293401628827088</v>
+        <v>13.22350241928196</v>
       </c>
       <c r="F2">
-        <v>22.244827973684</v>
+        <v>30.5146448945708</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.93054926734921</v>
+        <v>8.61094144185912</v>
       </c>
       <c r="L2">
-        <v>6.200237869560045</v>
+        <v>9.96923161932693</v>
       </c>
       <c r="M2">
-        <v>9.535334613274424</v>
+        <v>14.07003342166148</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.54536884568096</v>
+        <v>27.3772848623333</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14721684026289</v>
+        <v>12.01219342924657</v>
       </c>
       <c r="C3">
-        <v>8.286390645208998</v>
+        <v>10.71862745352171</v>
       </c>
       <c r="D3">
-        <v>5.358005096541336</v>
+        <v>6.331521204465345</v>
       </c>
       <c r="E3">
-        <v>8.309187940246957</v>
+        <v>13.2538932527781</v>
       </c>
       <c r="F3">
-        <v>21.98560378251208</v>
+        <v>30.55624990641657</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.35267030550943</v>
+        <v>8.448034244293421</v>
       </c>
       <c r="L3">
-        <v>6.122763693432133</v>
+        <v>9.977100882347445</v>
       </c>
       <c r="M3">
-        <v>9.216541102361258</v>
+        <v>14.04258394266601</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.54808908866256</v>
+        <v>27.45032074583864</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5741612045078</v>
+        <v>11.88372986712436</v>
       </c>
       <c r="C4">
-        <v>8.296968973784827</v>
+        <v>10.72113088122678</v>
       </c>
       <c r="D4">
-        <v>5.296382570148794</v>
+        <v>6.309310850992487</v>
       </c>
       <c r="E4">
-        <v>8.322898125828196</v>
+        <v>13.27431673644077</v>
       </c>
       <c r="F4">
-        <v>21.84290131022816</v>
+        <v>30.58872595969658</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.980656685709173</v>
+        <v>8.347819480564281</v>
       </c>
       <c r="L4">
-        <v>6.077463649611607</v>
+        <v>9.983261192141244</v>
       </c>
       <c r="M4">
-        <v>9.019021335792253</v>
+        <v>14.02779152086777</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.56329929784323</v>
+        <v>27.50030722770337</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33257833071471</v>
+        <v>11.83157727433648</v>
       </c>
       <c r="C5">
-        <v>8.301515826958934</v>
+        <v>10.72223984542566</v>
       </c>
       <c r="D5">
-        <v>5.270942933832521</v>
+        <v>6.300138251206354</v>
       </c>
       <c r="E5">
-        <v>8.329471110513644</v>
+        <v>13.28308310912181</v>
       </c>
       <c r="F5">
-        <v>21.78883097068293</v>
+        <v>30.6037005553944</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.824800601241142</v>
+        <v>8.306988566370848</v>
       </c>
       <c r="L5">
-        <v>6.0595818195524</v>
+        <v>9.986106150725195</v>
       </c>
       <c r="M5">
-        <v>8.938199565594113</v>
+        <v>14.02228649506488</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.57278332036137</v>
+        <v>27.52196834428897</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.29197554982331</v>
+        <v>11.82293134906925</v>
       </c>
       <c r="C6">
-        <v>8.302285046977394</v>
+        <v>10.72242936282232</v>
       </c>
       <c r="D6">
-        <v>5.266699365606143</v>
+        <v>6.298607866714666</v>
       </c>
       <c r="E6">
-        <v>8.330621396463837</v>
+        <v>13.28456555939736</v>
       </c>
       <c r="F6">
-        <v>21.78009727551543</v>
+        <v>30.60629210701302</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.798665942782389</v>
+        <v>8.300210699100047</v>
       </c>
       <c r="L6">
-        <v>6.056647684154102</v>
+        <v>9.986598775497646</v>
       </c>
       <c r="M6">
-        <v>8.924762770009385</v>
+        <v>14.02140410497081</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.57455310443649</v>
+        <v>27.52564308733063</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.57093582570627</v>
+        <v>11.88302562718395</v>
       </c>
       <c r="C7">
-        <v>8.297029340162009</v>
+        <v>10.72114547704487</v>
       </c>
       <c r="D7">
-        <v>5.296040788996781</v>
+        <v>6.309187635750489</v>
       </c>
       <c r="E7">
-        <v>8.322982811036065</v>
+        <v>13.27443316625387</v>
       </c>
       <c r="F7">
-        <v>21.84215565483917</v>
+        <v>30.58892086934948</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.978571894833687</v>
+        <v>8.347268717140507</v>
       </c>
       <c r="L7">
-        <v>6.077220138197983</v>
+        <v>9.983298204909797</v>
       </c>
       <c r="M7">
-        <v>9.017932524154684</v>
+        <v>14.02771515474147</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.56341405613045</v>
+        <v>27.50059413150322</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.73131650689217</v>
+        <v>12.14975354108283</v>
       </c>
       <c r="C8">
-        <v>8.275913837185046</v>
+        <v>10.71625847630712</v>
       </c>
       <c r="D8">
-        <v>5.422596801444866</v>
+        <v>6.354799082283151</v>
       </c>
       <c r="E8">
-        <v>8.297996308298515</v>
+        <v>13.23361532287097</v>
       </c>
       <c r="F8">
-        <v>22.15199960246258</v>
+        <v>30.52755064520935</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73489951202983</v>
+        <v>8.554842898146557</v>
       </c>
       <c r="L8">
-        <v>6.173058662234391</v>
+        <v>9.971669521759262</v>
       </c>
       <c r="M8">
-        <v>9.425850947731004</v>
+        <v>14.06014379282183</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.54342505120565</v>
+        <v>27.40139932169658</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.75640718404582</v>
+        <v>12.67380393761567</v>
       </c>
       <c r="C9">
-        <v>8.242081492137462</v>
+        <v>10.70944754489793</v>
       </c>
       <c r="D9">
-        <v>5.659290186710745</v>
+        <v>6.44022728213915</v>
       </c>
       <c r="E9">
-        <v>8.281971431907689</v>
+        <v>13.16755344902226</v>
       </c>
       <c r="F9">
-        <v>22.89225423572326</v>
+        <v>30.46227634945114</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.0795563910268</v>
+        <v>8.958046491994546</v>
       </c>
       <c r="L9">
-        <v>6.378626962773574</v>
+        <v>9.959383263496676</v>
       </c>
       <c r="M9">
-        <v>10.2070346769995</v>
+        <v>14.13987959463981</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.61696272542427</v>
+        <v>27.2477569736742</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.09481203865878</v>
+        <v>13.05548486233775</v>
       </c>
       <c r="C10">
-        <v>8.221964163652972</v>
+        <v>10.70611140046324</v>
       </c>
       <c r="D10">
-        <v>5.825398113678553</v>
+        <v>6.500411454563333</v>
       </c>
       <c r="E10">
-        <v>8.291825945133571</v>
+        <v>13.12752766114887</v>
       </c>
       <c r="F10">
-        <v>23.5190965523963</v>
+        <v>30.44797197569103</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.98124568755138</v>
+        <v>9.248909291411383</v>
       </c>
       <c r="L10">
-        <v>6.539863344310922</v>
+        <v>9.956733812941463</v>
       </c>
       <c r="M10">
-        <v>10.76409188381758</v>
+        <v>14.2079949380808</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.74692229037507</v>
+        <v>27.15989728792775</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.67195842441576</v>
+        <v>13.2276011006314</v>
       </c>
       <c r="C11">
-        <v>8.213872270967746</v>
+        <v>10.70495117608616</v>
       </c>
       <c r="D11">
-        <v>5.899125090880911</v>
+        <v>6.527203043353504</v>
       </c>
       <c r="E11">
-        <v>8.30133897073941</v>
+        <v>13.11116354257835</v>
       </c>
       <c r="F11">
-        <v>23.82256110577338</v>
+        <v>30.44877527234219</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.37257408766636</v>
+        <v>9.379465579040707</v>
       </c>
       <c r="L11">
-        <v>6.615308507248499</v>
+        <v>9.956904597120303</v>
       </c>
       <c r="M11">
-        <v>11.01290805408552</v>
+        <v>14.24097991776738</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.82405277026341</v>
+        <v>27.12537982569004</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.88600998329613</v>
+        <v>13.29249677107259</v>
       </c>
       <c r="C12">
-        <v>8.210963364855218</v>
+        <v>10.7045628310169</v>
       </c>
       <c r="D12">
-        <v>5.92676833202955</v>
+        <v>6.537261627118469</v>
       </c>
       <c r="E12">
-        <v>8.305692404498728</v>
+        <v>13.1052317390207</v>
       </c>
       <c r="F12">
-        <v>23.94012112820186</v>
+        <v>30.45012969705661</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.5180473540305</v>
+        <v>9.428604362175465</v>
       </c>
       <c r="L12">
-        <v>6.644168963245385</v>
+        <v>9.957166268275017</v>
       </c>
       <c r="M12">
-        <v>11.10640367294317</v>
+        <v>14.25375122667105</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.85597259178926</v>
+        <v>27.11309404327483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.84010941297527</v>
+        <v>13.27853380497551</v>
       </c>
       <c r="C13">
-        <v>8.21158289188228</v>
+        <v>10.70464420569445</v>
       </c>
       <c r="D13">
-        <v>5.920827293542833</v>
+        <v>6.535099231063334</v>
       </c>
       <c r="E13">
-        <v>8.304720965807565</v>
+        <v>13.10649747955498</v>
       </c>
       <c r="F13">
-        <v>23.91468471046548</v>
+        <v>30.44979131165857</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.48683776842913</v>
+        <v>9.418035513045261</v>
       </c>
       <c r="L13">
-        <v>6.637940569814993</v>
+        <v>9.957101165821838</v>
       </c>
       <c r="M13">
-        <v>11.08630092436548</v>
+        <v>14.25098832859558</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.84897553373635</v>
+        <v>27.11570506113389</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.68965845225214</v>
+        <v>13.23294609163703</v>
       </c>
       <c r="C14">
-        <v>8.213629822753704</v>
+        <v>10.70491820666787</v>
       </c>
       <c r="D14">
-        <v>5.901404901951373</v>
+        <v>6.528032322943575</v>
       </c>
       <c r="E14">
-        <v>8.301681917941515</v>
+        <v>13.11067022111966</v>
       </c>
       <c r="F14">
-        <v>23.83217978537034</v>
+        <v>30.44886566173042</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.38459664925815</v>
+        <v>9.383514530298305</v>
       </c>
       <c r="L14">
-        <v>6.617677101545658</v>
+        <v>9.956922182075733</v>
       </c>
       <c r="M14">
-        <v>11.02061487621304</v>
+        <v>14.24202503739328</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.82662378288915</v>
+        <v>27.12435332187504</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.59691842940453</v>
+        <v>13.20498387026178</v>
       </c>
       <c r="C15">
-        <v>8.214903946607574</v>
+        <v>10.70509267127782</v>
       </c>
       <c r="D15">
-        <v>5.889471915665323</v>
+        <v>6.52369225962649</v>
       </c>
       <c r="E15">
-        <v>8.299919052271219</v>
+        <v>13.11326064149964</v>
       </c>
       <c r="F15">
-        <v>23.78198781637392</v>
+        <v>30.44843540383717</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.32161757233614</v>
+        <v>9.362329002533761</v>
       </c>
       <c r="L15">
-        <v>6.605302731163716</v>
+        <v>9.956838177261638</v>
       </c>
       <c r="M15">
-        <v>10.98028400769233</v>
+        <v>14.23657109862348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.81328949520411</v>
+        <v>27.12975293272837</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.05646112078904</v>
+        <v>13.04420072950741</v>
       </c>
       <c r="C16">
-        <v>8.222514555057158</v>
+        <v>10.70619438257919</v>
       </c>
       <c r="D16">
-        <v>5.820541924008181</v>
+        <v>6.498648547486701</v>
       </c>
       <c r="E16">
-        <v>8.291307828242001</v>
+        <v>13.12863417991722</v>
       </c>
       <c r="F16">
-        <v>23.49963396702811</v>
+        <v>30.44806651424304</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.95529161250874</v>
+        <v>9.240337650294972</v>
       </c>
       <c r="L16">
-        <v>6.534974119918881</v>
+        <v>9.956750268161379</v>
       </c>
       <c r="M16">
-        <v>10.74773293908688</v>
+        <v>14.20587893920755</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.74225454605444</v>
+        <v>27.16226289018374</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71682894974616</v>
+        <v>12.94513198690425</v>
       </c>
       <c r="C17">
-        <v>8.227456810275587</v>
+        <v>10.70696151038304</v>
       </c>
       <c r="D17">
-        <v>5.777776769140157</v>
+        <v>6.483133058291622</v>
       </c>
       <c r="E17">
-        <v>8.287333081854191</v>
+        <v>13.1385374526119</v>
       </c>
       <c r="F17">
-        <v>23.33111841737511</v>
+        <v>30.44971210955058</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.72572867265951</v>
+        <v>9.165015078039893</v>
       </c>
       <c r="L17">
-        <v>6.492359416315647</v>
+        <v>9.957048176170449</v>
       </c>
       <c r="M17">
-        <v>10.60384451179375</v>
+        <v>14.18755751333152</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.70337746063943</v>
+        <v>27.18360376307114</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.51849415974317</v>
+        <v>12.88801153824389</v>
       </c>
       <c r="C18">
-        <v>8.230399003813391</v>
+        <v>10.7074364056857</v>
       </c>
       <c r="D18">
-        <v>5.753007160778027</v>
+        <v>6.474153901935469</v>
       </c>
       <c r="E18">
-        <v>8.285518696218734</v>
+        <v>13.14440711499496</v>
       </c>
       <c r="F18">
-        <v>23.23591588382549</v>
+        <v>30.45134680995907</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.59191509887438</v>
+        <v>9.121528648583569</v>
       </c>
       <c r="L18">
-        <v>6.468046657001271</v>
+        <v>9.957349100582205</v>
       </c>
       <c r="M18">
-        <v>10.52065472192323</v>
+        <v>14.17720809553754</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.68270448359755</v>
+        <v>27.19639140283586</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.45082661190633</v>
+        <v>12.86864969392406</v>
       </c>
       <c r="C19">
-        <v>8.231412190680592</v>
+        <v>10.7076029906799</v>
       </c>
       <c r="D19">
-        <v>5.744591384650813</v>
+        <v>6.47110433352762</v>
       </c>
       <c r="E19">
-        <v>8.284984566576407</v>
+        <v>13.14642429717951</v>
       </c>
       <c r="F19">
-        <v>23.20397747583263</v>
+        <v>30.45201850852506</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.54630348036598</v>
+        <v>9.10677839674606</v>
       </c>
       <c r="L19">
-        <v>6.459849128103813</v>
+        <v>9.957473268534532</v>
       </c>
       <c r="M19">
-        <v>10.49241657207057</v>
+        <v>14.1737365527549</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.67599115096102</v>
+        <v>27.2008091272723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.75329214411446</v>
+        <v>12.95569285131767</v>
       </c>
       <c r="C20">
-        <v>8.226920376400326</v>
+        <v>10.70687636706612</v>
       </c>
       <c r="D20">
-        <v>5.782347103768931</v>
+        <v>6.484790424824008</v>
       </c>
       <c r="E20">
-        <v>8.287707172903579</v>
+        <v>13.13746527075365</v>
       </c>
       <c r="F20">
-        <v>23.34887874955752</v>
+        <v>30.44946571215555</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.75034979670335</v>
+        <v>9.173050501784568</v>
       </c>
       <c r="L20">
-        <v>6.496875401192071</v>
+        <v>9.957003058855268</v>
       </c>
       <c r="M20">
-        <v>10.61920658352488</v>
+        <v>14.18948839141428</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.70734039116785</v>
+        <v>27.18127889273386</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.73397124357293</v>
+        <v>13.24634442613805</v>
       </c>
       <c r="C21">
-        <v>8.213024349270832</v>
+        <v>10.70483634471428</v>
       </c>
       <c r="D21">
-        <v>5.907117294521701</v>
+        <v>6.530110420706</v>
       </c>
       <c r="E21">
-        <v>8.30255395372429</v>
+        <v>13.10943739729748</v>
       </c>
       <c r="F21">
-        <v>23.85634163516652</v>
+        <v>30.44910905606689</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.41470099533421</v>
+        <v>9.393662685481502</v>
       </c>
       <c r="L21">
-        <v>6.623621158206299</v>
+        <v>9.956969414772205</v>
       </c>
       <c r="M21">
-        <v>11.03992862514435</v>
+        <v>14.24465021355486</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.83311446033486</v>
+        <v>27.12179179611969</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.34869291031631</v>
+        <v>13.43463677068183</v>
       </c>
       <c r="C22">
-        <v>8.204849388444767</v>
+        <v>10.70380019956016</v>
       </c>
       <c r="D22">
-        <v>5.987051009919185</v>
+        <v>6.55922254014723</v>
       </c>
       <c r="E22">
-        <v>8.316648050109114</v>
+        <v>13.09266368524717</v>
       </c>
       <c r="F22">
-        <v>24.20341582147581</v>
+        <v>30.45499654809129</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.83307578360326</v>
+        <v>9.536076623143638</v>
       </c>
       <c r="L22">
-        <v>6.708148505424089</v>
+        <v>9.958095229306565</v>
       </c>
       <c r="M22">
-        <v>11.32854475446593</v>
+        <v>14.28233389400155</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.93117929962097</v>
+        <v>27.08749104046231</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.02298308891674</v>
+        <v>13.33431417609994</v>
       </c>
       <c r="C23">
-        <v>8.209128485112592</v>
+        <v>10.7043261502395</v>
       </c>
       <c r="D23">
-        <v>5.944539806983571</v>
+        <v>6.543732064599276</v>
       </c>
       <c r="E23">
-        <v>8.308714744715335</v>
+        <v>13.10147491635816</v>
       </c>
       <c r="F23">
-        <v>24.01676210727571</v>
+        <v>30.4512947666089</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.61122757754889</v>
+        <v>9.460244357410854</v>
       </c>
       <c r="L23">
-        <v>6.662883274117752</v>
+        <v>9.957389644434372</v>
       </c>
       <c r="M23">
-        <v>11.16656523628616</v>
+        <v>14.26207439208155</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.87734872336285</v>
+        <v>27.10537871113882</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.73681671846696</v>
+        <v>12.95091879205755</v>
       </c>
       <c r="C24">
-        <v>8.227162584327022</v>
+        <v>10.70691475485048</v>
       </c>
       <c r="D24">
-        <v>5.780281425697424</v>
+        <v>6.484041313288164</v>
       </c>
       <c r="E24">
-        <v>8.287536582156863</v>
+        <v>13.13794945550392</v>
       </c>
       <c r="F24">
-        <v>23.34084407362652</v>
+        <v>30.44957496331171</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.73922430113988</v>
+        <v>9.169418251477552</v>
       </c>
       <c r="L24">
-        <v>6.49483314114454</v>
+        <v>9.957023052474675</v>
       </c>
       <c r="M24">
-        <v>10.61226283860334</v>
+        <v>14.18861486835741</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.70554353302603</v>
+        <v>27.1823283516471</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.23504567028225</v>
+        <v>12.53234256692108</v>
       </c>
       <c r="C25">
-        <v>8.250411371271682</v>
+        <v>10.71099558358733</v>
       </c>
       <c r="D25">
-        <v>5.596572842914306</v>
+        <v>6.417560273952438</v>
       </c>
       <c r="E25">
-        <v>8.282620005264334</v>
+        <v>13.18392945353029</v>
       </c>
       <c r="F25">
-        <v>22.67754061619501</v>
+        <v>30.47402808996053</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.73084988525614</v>
+        <v>8.849701370354127</v>
       </c>
       <c r="L25">
-        <v>6.321181912720444</v>
+        <v>9.961584333315534</v>
       </c>
       <c r="M25">
-        <v>9.998313749080062</v>
+        <v>14.11661110055496</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.58425212307813</v>
+        <v>27.28493404926462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.22224168450624</v>
+        <v>13.02865749216459</v>
       </c>
       <c r="C2">
-        <v>10.71512280286241</v>
+        <v>8.270701207660215</v>
       </c>
       <c r="D2">
-        <v>6.366890670965001</v>
+        <v>5.4561415425281</v>
       </c>
       <c r="E2">
-        <v>13.22350241928196</v>
+        <v>8.293401628827086</v>
       </c>
       <c r="F2">
-        <v>30.5146448945708</v>
+        <v>22.24482797368389</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.61094144185912</v>
+        <v>10.93054926734919</v>
       </c>
       <c r="L2">
-        <v>9.96923161932693</v>
+        <v>6.200237869559991</v>
       </c>
       <c r="M2">
-        <v>14.07003342166148</v>
+        <v>9.535334613274427</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.3772848623333</v>
+        <v>18.54536884568093</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01219342924657</v>
+        <v>12.14721684026284</v>
       </c>
       <c r="C3">
-        <v>10.71862745352171</v>
+        <v>8.286390645209142</v>
       </c>
       <c r="D3">
-        <v>6.331521204465345</v>
+        <v>5.358005096541524</v>
       </c>
       <c r="E3">
-        <v>13.2538932527781</v>
+        <v>8.309187940247067</v>
       </c>
       <c r="F3">
-        <v>30.55624990641657</v>
+        <v>21.98560378251209</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.448034244293421</v>
+        <v>10.35267030550943</v>
       </c>
       <c r="L3">
-        <v>9.977100882347445</v>
+        <v>6.122763693432155</v>
       </c>
       <c r="M3">
-        <v>14.04258394266601</v>
+        <v>9.216541102361314</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.45032074583864</v>
+        <v>18.54808908866258</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.88372986712436</v>
+        <v>11.57416120450779</v>
       </c>
       <c r="C4">
-        <v>10.72113088122678</v>
+        <v>8.296968973784818</v>
       </c>
       <c r="D4">
-        <v>6.309310850992487</v>
+        <v>5.296382570148845</v>
       </c>
       <c r="E4">
-        <v>13.27431673644077</v>
+        <v>8.32289812582821</v>
       </c>
       <c r="F4">
-        <v>30.58872595969658</v>
+        <v>21.84290131022813</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.347819480564281</v>
+        <v>9.98065668570916</v>
       </c>
       <c r="L4">
-        <v>9.983261192141244</v>
+        <v>6.077463649611566</v>
       </c>
       <c r="M4">
-        <v>14.02779152086777</v>
+        <v>9.019021335792264</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.50030722770337</v>
+        <v>18.56329929784317</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.83157727433648</v>
+        <v>11.33257833071475</v>
       </c>
       <c r="C5">
-        <v>10.72223984542566</v>
+        <v>8.301515826958934</v>
       </c>
       <c r="D5">
-        <v>6.300138251206354</v>
+        <v>5.270942933832448</v>
       </c>
       <c r="E5">
-        <v>13.28308310912181</v>
+        <v>8.329471110513712</v>
       </c>
       <c r="F5">
-        <v>30.6037005553944</v>
+        <v>21.78883097068261</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.306988566370848</v>
+        <v>9.82480060124122</v>
       </c>
       <c r="L5">
-        <v>9.986106150725195</v>
+        <v>6.059581819552481</v>
       </c>
       <c r="M5">
-        <v>14.02228649506488</v>
+        <v>8.938199565594079</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.52196834428897</v>
+        <v>18.57278332036108</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.82293134906925</v>
+        <v>11.29197554982329</v>
       </c>
       <c r="C6">
-        <v>10.72242936282232</v>
+        <v>8.302285046977394</v>
       </c>
       <c r="D6">
-        <v>6.298607866714666</v>
+        <v>5.266699365606146</v>
       </c>
       <c r="E6">
-        <v>13.28456555939736</v>
+        <v>8.330621396463901</v>
       </c>
       <c r="F6">
-        <v>30.60629210701302</v>
+        <v>21.78009727551546</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.300210699100047</v>
+        <v>9.798665942782399</v>
       </c>
       <c r="L6">
-        <v>9.986598775497646</v>
+        <v>6.056647684154093</v>
       </c>
       <c r="M6">
-        <v>14.02140410497081</v>
+        <v>8.924762770009403</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.52564308733063</v>
+        <v>18.57455310443651</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88302562718395</v>
+        <v>11.57093582570636</v>
       </c>
       <c r="C7">
-        <v>10.72114547704487</v>
+        <v>8.297029340162137</v>
       </c>
       <c r="D7">
-        <v>6.309187635750489</v>
+        <v>5.296040788996794</v>
       </c>
       <c r="E7">
-        <v>13.27443316625387</v>
+        <v>8.322982811036187</v>
       </c>
       <c r="F7">
-        <v>30.58892086934948</v>
+        <v>21.84215565483893</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.347268717140507</v>
+        <v>9.978571894833795</v>
       </c>
       <c r="L7">
-        <v>9.983298204909797</v>
+        <v>6.07722013819801</v>
       </c>
       <c r="M7">
-        <v>14.02771515474147</v>
+        <v>9.017932524154647</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.50059413150322</v>
+        <v>18.56341405613023</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.14975354108283</v>
+        <v>12.73131650689224</v>
       </c>
       <c r="C8">
-        <v>10.71625847630712</v>
+        <v>8.275913837184774</v>
       </c>
       <c r="D8">
-        <v>6.354799082283151</v>
+        <v>5.42259680144492</v>
       </c>
       <c r="E8">
-        <v>13.23361532287097</v>
+        <v>8.297996308298405</v>
       </c>
       <c r="F8">
-        <v>30.52755064520935</v>
+        <v>22.15199960246247</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.554842898146557</v>
+        <v>10.73489951202987</v>
       </c>
       <c r="L8">
-        <v>9.971669521759262</v>
+        <v>6.173058662234416</v>
       </c>
       <c r="M8">
-        <v>14.06014379282183</v>
+        <v>9.425850947730948</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.40139932169658</v>
+        <v>18.54342505120558</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.67380393761567</v>
+        <v>14.75640718404581</v>
       </c>
       <c r="C9">
-        <v>10.70944754489793</v>
+        <v>8.242081492137462</v>
       </c>
       <c r="D9">
-        <v>6.44022728213915</v>
+        <v>5.659290186710735</v>
       </c>
       <c r="E9">
-        <v>13.16755344902226</v>
+        <v>8.281971431907738</v>
       </c>
       <c r="F9">
-        <v>30.46227634945114</v>
+        <v>22.89225423572312</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.958046491994546</v>
+        <v>12.07955639102683</v>
       </c>
       <c r="L9">
-        <v>9.959383263496676</v>
+        <v>6.378626962773535</v>
       </c>
       <c r="M9">
-        <v>14.13987959463981</v>
+        <v>10.20703467699948</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.2477569736742</v>
+        <v>18.61696272542411</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.05548486233775</v>
+        <v>16.09481203865877</v>
       </c>
       <c r="C10">
-        <v>10.70611140046324</v>
+        <v>8.2219641636531</v>
       </c>
       <c r="D10">
-        <v>6.500411454563333</v>
+        <v>5.825398113678491</v>
       </c>
       <c r="E10">
-        <v>13.12752766114887</v>
+        <v>8.291825945133622</v>
       </c>
       <c r="F10">
-        <v>30.44797197569103</v>
+        <v>23.51909655239621</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.248909291411383</v>
+        <v>12.98124568755143</v>
       </c>
       <c r="L10">
-        <v>9.956733812941463</v>
+        <v>6.539863344310948</v>
       </c>
       <c r="M10">
-        <v>14.2079949380808</v>
+        <v>10.76409188381759</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.15989728792775</v>
+        <v>18.74692229037501</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.2276011006314</v>
+        <v>16.67195842441578</v>
       </c>
       <c r="C11">
-        <v>10.70495117608616</v>
+        <v>8.21387227096761</v>
       </c>
       <c r="D11">
-        <v>6.527203043353504</v>
+        <v>5.899125090880841</v>
       </c>
       <c r="E11">
-        <v>13.11116354257835</v>
+        <v>8.30133897073941</v>
       </c>
       <c r="F11">
-        <v>30.44877527234219</v>
+        <v>23.82256110577335</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.379465579040707</v>
+        <v>13.3725740876664</v>
       </c>
       <c r="L11">
-        <v>9.956904597120303</v>
+        <v>6.615308507248494</v>
       </c>
       <c r="M11">
-        <v>14.24097991776738</v>
+        <v>11.0129080540855</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.12537982569004</v>
+        <v>18.82405277026336</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.29249677107259</v>
+        <v>16.88600998329611</v>
       </c>
       <c r="C12">
-        <v>10.7045628310169</v>
+        <v>8.210963364855346</v>
       </c>
       <c r="D12">
-        <v>6.537261627118469</v>
+        <v>5.926768332029452</v>
       </c>
       <c r="E12">
-        <v>13.1052317390207</v>
+        <v>8.305692404498743</v>
       </c>
       <c r="F12">
-        <v>30.45012969705661</v>
+        <v>23.94012112820189</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.428604362175465</v>
+        <v>13.5180473540305</v>
       </c>
       <c r="L12">
-        <v>9.957166268275017</v>
+        <v>6.644168963245374</v>
       </c>
       <c r="M12">
-        <v>14.25375122667105</v>
+        <v>11.10640367294318</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.11309404327483</v>
+        <v>18.85597259178927</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.27853380497551</v>
+        <v>16.84010941297528</v>
       </c>
       <c r="C13">
-        <v>10.70464420569445</v>
+        <v>8.211582891882289</v>
       </c>
       <c r="D13">
-        <v>6.535099231063334</v>
+        <v>5.920827293542797</v>
       </c>
       <c r="E13">
-        <v>13.10649747955498</v>
+        <v>8.304720965807505</v>
       </c>
       <c r="F13">
-        <v>30.44979131165857</v>
+        <v>23.91468471046534</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.418035513045261</v>
+        <v>13.48683776842911</v>
       </c>
       <c r="L13">
-        <v>9.957101165821838</v>
+        <v>6.637940569814983</v>
       </c>
       <c r="M13">
-        <v>14.25098832859558</v>
+        <v>11.08630092436547</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.11570506113389</v>
+        <v>18.84897553373623</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.23294609163703</v>
+        <v>16.68965845225209</v>
       </c>
       <c r="C14">
-        <v>10.70491820666787</v>
+        <v>8.213629822753951</v>
       </c>
       <c r="D14">
-        <v>6.528032322943575</v>
+        <v>5.901404901951478</v>
       </c>
       <c r="E14">
-        <v>13.11067022111966</v>
+        <v>8.30168191794162</v>
       </c>
       <c r="F14">
-        <v>30.44886566173042</v>
+        <v>23.83217978537045</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.383514530298305</v>
+        <v>13.38459664925818</v>
       </c>
       <c r="L14">
-        <v>9.956922182075733</v>
+        <v>6.61767710154567</v>
       </c>
       <c r="M14">
-        <v>14.24202503739328</v>
+        <v>11.02061487621306</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.12435332187504</v>
+        <v>18.82662378288931</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.20498387026178</v>
+        <v>16.59691842940452</v>
       </c>
       <c r="C15">
-        <v>10.70509267127782</v>
+        <v>8.214903946607704</v>
       </c>
       <c r="D15">
-        <v>6.52369225962649</v>
+        <v>5.88947191566543</v>
       </c>
       <c r="E15">
-        <v>13.11326064149964</v>
+        <v>8.299919052271218</v>
       </c>
       <c r="F15">
-        <v>30.44843540383717</v>
+        <v>23.78198781637399</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.362329002533761</v>
+        <v>13.32161757233618</v>
       </c>
       <c r="L15">
-        <v>9.956838177261638</v>
+        <v>6.605302731163682</v>
       </c>
       <c r="M15">
-        <v>14.23657109862348</v>
+        <v>10.98028400769232</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.12975293272837</v>
+        <v>18.81328949520423</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.04420072950741</v>
+        <v>16.05646112078903</v>
       </c>
       <c r="C16">
-        <v>10.70619438257919</v>
+        <v>8.222514555057293</v>
       </c>
       <c r="D16">
-        <v>6.498648547486701</v>
+        <v>5.820541924008294</v>
       </c>
       <c r="E16">
-        <v>13.12863417991722</v>
+        <v>8.291307828241905</v>
       </c>
       <c r="F16">
-        <v>30.44806651424304</v>
+        <v>23.49963396702818</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.240337650294972</v>
+        <v>12.9552916125087</v>
       </c>
       <c r="L16">
-        <v>9.956750268161379</v>
+        <v>6.534974119918827</v>
       </c>
       <c r="M16">
-        <v>14.20587893920755</v>
+        <v>10.74773293908687</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.16226289018374</v>
+        <v>18.74225454605455</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.94513198690425</v>
+        <v>15.71682894974615</v>
       </c>
       <c r="C17">
-        <v>10.70696151038304</v>
+        <v>8.227456810275461</v>
       </c>
       <c r="D17">
-        <v>6.483133058291622</v>
+        <v>5.777776769140149</v>
       </c>
       <c r="E17">
-        <v>13.1385374526119</v>
+        <v>8.287333081854131</v>
       </c>
       <c r="F17">
-        <v>30.44971210955058</v>
+        <v>23.33111841737514</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.165015078039893</v>
+        <v>12.72572867265948</v>
       </c>
       <c r="L17">
-        <v>9.957048176170449</v>
+        <v>6.492359416315645</v>
       </c>
       <c r="M17">
-        <v>14.18755751333152</v>
+        <v>10.60384451179375</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.18360376307114</v>
+        <v>18.70337746063948</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.88801153824389</v>
+        <v>15.51849415974317</v>
       </c>
       <c r="C18">
-        <v>10.7074364056857</v>
+        <v>8.230399003813277</v>
       </c>
       <c r="D18">
-        <v>6.474153901935469</v>
+        <v>5.753007160778013</v>
       </c>
       <c r="E18">
-        <v>13.14440711499496</v>
+        <v>8.285518696218729</v>
       </c>
       <c r="F18">
-        <v>30.45134680995907</v>
+        <v>23.23591588382547</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.121528648583569</v>
+        <v>12.59191509887441</v>
       </c>
       <c r="L18">
-        <v>9.957349100582205</v>
+        <v>6.468046657001317</v>
       </c>
       <c r="M18">
-        <v>14.17720809553754</v>
+        <v>10.52065472192323</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.19639140283586</v>
+        <v>18.68270448359748</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.86864969392406</v>
+        <v>15.45082661190638</v>
       </c>
       <c r="C19">
-        <v>10.7076029906799</v>
+        <v>8.231412190680599</v>
       </c>
       <c r="D19">
-        <v>6.47110433352762</v>
+        <v>5.744591384650766</v>
       </c>
       <c r="E19">
-        <v>13.14642429717951</v>
+        <v>8.28498456657635</v>
       </c>
       <c r="F19">
-        <v>30.45201850852506</v>
+        <v>23.20397747583251</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.10677839674606</v>
+        <v>12.54630348036601</v>
       </c>
       <c r="L19">
-        <v>9.957473268534532</v>
+        <v>6.459849128103815</v>
       </c>
       <c r="M19">
-        <v>14.1737365527549</v>
+        <v>10.49241657207053</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.2008091272723</v>
+        <v>18.6759911509609</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.95569285131767</v>
+        <v>15.7532921441145</v>
       </c>
       <c r="C20">
-        <v>10.70687636706612</v>
+        <v>8.226920376400068</v>
       </c>
       <c r="D20">
-        <v>6.484790424824008</v>
+        <v>5.782347103769098</v>
       </c>
       <c r="E20">
-        <v>13.13746527075365</v>
+        <v>8.28770717290346</v>
       </c>
       <c r="F20">
-        <v>30.44946571215555</v>
+        <v>23.3488787495575</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.173050501784568</v>
+        <v>12.75034979670338</v>
       </c>
       <c r="L20">
-        <v>9.957003058855268</v>
+        <v>6.496875401192019</v>
       </c>
       <c r="M20">
-        <v>14.18948839141428</v>
+        <v>10.61920658352485</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.18127889273386</v>
+        <v>18.70734039116787</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.24634442613805</v>
+        <v>16.73397124357296</v>
       </c>
       <c r="C21">
-        <v>10.70483634471428</v>
+        <v>8.213024349270711</v>
       </c>
       <c r="D21">
-        <v>6.530110420706</v>
+        <v>5.907117294521707</v>
       </c>
       <c r="E21">
-        <v>13.10943739729748</v>
+        <v>8.30255395372429</v>
       </c>
       <c r="F21">
-        <v>30.44910905606689</v>
+        <v>23.85634163516648</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.393662685481502</v>
+        <v>13.41470099533426</v>
       </c>
       <c r="L21">
-        <v>9.956969414772205</v>
+        <v>6.623621158206299</v>
       </c>
       <c r="M21">
-        <v>14.24465021355486</v>
+        <v>11.03992862514433</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.12179179611969</v>
+        <v>18.83311446033481</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.43463677068183</v>
+        <v>17.34869291031623</v>
       </c>
       <c r="C22">
-        <v>10.70380019956016</v>
+        <v>8.204849388444901</v>
       </c>
       <c r="D22">
-        <v>6.55922254014723</v>
+        <v>5.987051009919277</v>
       </c>
       <c r="E22">
-        <v>13.09266368524717</v>
+        <v>8.316648050109068</v>
       </c>
       <c r="F22">
-        <v>30.45499654809129</v>
+        <v>24.20341582147571</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.536076623143638</v>
+        <v>13.83307578360314</v>
       </c>
       <c r="L22">
-        <v>9.958095229306565</v>
+        <v>6.708148505424075</v>
       </c>
       <c r="M22">
-        <v>14.28233389400155</v>
+        <v>11.32854475446589</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.08749104046231</v>
+        <v>18.93117929962091</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.33431417609994</v>
+        <v>17.02298308891672</v>
       </c>
       <c r="C23">
-        <v>10.7043261502395</v>
+        <v>8.209128485112574</v>
       </c>
       <c r="D23">
-        <v>6.543732064599276</v>
+        <v>5.944539806983622</v>
       </c>
       <c r="E23">
-        <v>13.10147491635816</v>
+        <v>8.308714744715259</v>
       </c>
       <c r="F23">
-        <v>30.4512947666089</v>
+        <v>24.0167621072757</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.460244357410854</v>
+        <v>13.61122757754885</v>
       </c>
       <c r="L23">
-        <v>9.957389644434372</v>
+        <v>6.662883274117701</v>
       </c>
       <c r="M23">
-        <v>14.26207439208155</v>
+        <v>11.16656523628615</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.10537871113882</v>
+        <v>18.87734872336283</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.95091879205755</v>
+        <v>15.73681671846698</v>
       </c>
       <c r="C24">
-        <v>10.70691475485048</v>
+        <v>8.227162584326889</v>
       </c>
       <c r="D24">
-        <v>6.484041313288164</v>
+        <v>5.780281425697479</v>
       </c>
       <c r="E24">
-        <v>13.13794945550392</v>
+        <v>8.28753658215687</v>
       </c>
       <c r="F24">
-        <v>30.44957496331171</v>
+        <v>23.34084407362642</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.169418251477552</v>
+        <v>12.73922430113986</v>
       </c>
       <c r="L24">
-        <v>9.957023052474675</v>
+        <v>6.494833141144587</v>
       </c>
       <c r="M24">
-        <v>14.18861486835741</v>
+        <v>10.61226283860334</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.1823283516471</v>
+        <v>18.70554353302595</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.53234256692108</v>
+        <v>14.23504567028222</v>
       </c>
       <c r="C25">
-        <v>10.71099558358733</v>
+        <v>8.250411371271946</v>
       </c>
       <c r="D25">
-        <v>6.417560273952438</v>
+        <v>5.5965728429143</v>
       </c>
       <c r="E25">
-        <v>13.18392945353029</v>
+        <v>8.282620005264221</v>
       </c>
       <c r="F25">
-        <v>30.47402808996053</v>
+        <v>22.67754061619492</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.849701370354127</v>
+        <v>11.73084988525617</v>
       </c>
       <c r="L25">
-        <v>9.961584333315534</v>
+        <v>6.321181912720331</v>
       </c>
       <c r="M25">
-        <v>14.11661110055496</v>
+        <v>9.998313749079987</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.28493404926462</v>
+        <v>18.58425212307806</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02865749216459</v>
+        <v>13.7740116938228</v>
       </c>
       <c r="C2">
-        <v>8.270701207660215</v>
+        <v>6.758563427180435</v>
       </c>
       <c r="D2">
-        <v>5.4561415425281</v>
+        <v>5.485089707888142</v>
       </c>
       <c r="E2">
-        <v>8.293401628827086</v>
+        <v>7.758811757664406</v>
       </c>
       <c r="F2">
-        <v>22.24482797368389</v>
+        <v>24.05512400221954</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.998774714169519</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.650051398066773</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>10.93054926734919</v>
+        <v>17.25783673145582</v>
       </c>
       <c r="L2">
-        <v>6.200237869559991</v>
+        <v>5.85743774158844</v>
       </c>
       <c r="M2">
-        <v>9.535334613274427</v>
+        <v>10.89886812354853</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.951748640693491</v>
       </c>
       <c r="O2">
-        <v>18.54536884568093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.5519370006867</v>
+      </c>
+      <c r="Q2">
+        <v>17.93932251398246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14721684026284</v>
+        <v>12.94724142800653</v>
       </c>
       <c r="C3">
-        <v>8.286390645209142</v>
+        <v>6.512277039192393</v>
       </c>
       <c r="D3">
-        <v>5.358005096541524</v>
+        <v>5.283577520317968</v>
       </c>
       <c r="E3">
-        <v>8.309187940247067</v>
+        <v>7.600811724460227</v>
       </c>
       <c r="F3">
-        <v>21.98560378251209</v>
+        <v>23.80433445717085</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>3.18607958428052</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.792161057918911</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.35267030550943</v>
+        <v>17.27670555462979</v>
       </c>
       <c r="L3">
-        <v>6.122763693432155</v>
+        <v>5.815386909916559</v>
       </c>
       <c r="M3">
-        <v>9.216541102361314</v>
+        <v>10.23040935673361</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.760847544968507</v>
       </c>
       <c r="O3">
-        <v>18.54808908866258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.68583977886389</v>
+      </c>
+      <c r="Q3">
+        <v>17.88861910386805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.57416120450779</v>
+        <v>12.41061823167693</v>
       </c>
       <c r="C4">
-        <v>8.296968973784818</v>
+        <v>6.357067032599219</v>
       </c>
       <c r="D4">
-        <v>5.296382570148845</v>
+        <v>5.156822251735826</v>
       </c>
       <c r="E4">
-        <v>8.32289812582821</v>
+        <v>7.501426693886616</v>
       </c>
       <c r="F4">
-        <v>21.84290131022813</v>
+        <v>23.65582799887668</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>3.305537926863658</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.883469868449513</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.98065668570916</v>
+        <v>17.29172748216284</v>
       </c>
       <c r="L4">
-        <v>6.077463649611566</v>
+        <v>5.788580702057112</v>
       </c>
       <c r="M4">
-        <v>9.019021335792264</v>
+        <v>9.796169658555348</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.641707907348724</v>
       </c>
       <c r="O4">
-        <v>18.56329929784317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.76966808786345</v>
+      </c>
+      <c r="Q4">
+        <v>17.86262432940983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33257833071475</v>
+        <v>12.1799688520055</v>
       </c>
       <c r="C5">
-        <v>8.301515826958934</v>
+        <v>6.297080543403374</v>
       </c>
       <c r="D5">
-        <v>5.270942933832448</v>
+        <v>5.105130404335999</v>
       </c>
       <c r="E5">
-        <v>8.329471110513712</v>
+        <v>7.45943885641612</v>
       </c>
       <c r="F5">
-        <v>21.78883097068261</v>
+        <v>23.59073717066691</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>3.355657253056479</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.924191101256471</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.82480060124122</v>
+        <v>17.29433260186459</v>
       </c>
       <c r="L5">
-        <v>6.059581819552481</v>
+        <v>5.776930960363285</v>
       </c>
       <c r="M5">
-        <v>8.938199565594079</v>
+        <v>9.61282988993187</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.593909644773417</v>
       </c>
       <c r="O5">
-        <v>18.57278332036108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.80384991044743</v>
+      </c>
+      <c r="Q5">
+        <v>17.84910798091292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.29197554982329</v>
+        <v>12.13539074777033</v>
       </c>
       <c r="C6">
-        <v>8.302285046977394</v>
+        <v>6.2922667292056</v>
       </c>
       <c r="D6">
-        <v>5.266699365606146</v>
+        <v>5.097309481581325</v>
       </c>
       <c r="E6">
-        <v>8.330621396463901</v>
+        <v>7.451309673567941</v>
       </c>
       <c r="F6">
-        <v>21.78009727551546</v>
+        <v>23.57270386991448</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>3.36442258890006</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.934195107389637</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.798665942782399</v>
+        <v>17.28948074017323</v>
       </c>
       <c r="L6">
-        <v>6.056647684154093</v>
+        <v>5.774398594430393</v>
       </c>
       <c r="M6">
-        <v>8.924762770009403</v>
+        <v>9.581513261155678</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.587399406990057</v>
       </c>
       <c r="O6">
-        <v>18.57455310443651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.80907533322431</v>
+      </c>
+      <c r="Q6">
+        <v>17.84181156187259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.57093582570636</v>
+        <v>12.3919112303902</v>
       </c>
       <c r="C7">
-        <v>8.297029340162137</v>
+        <v>6.370328915661942</v>
       </c>
       <c r="D7">
-        <v>5.296040788996794</v>
+        <v>5.158290883528164</v>
       </c>
       <c r="E7">
-        <v>8.322982811036187</v>
+        <v>7.497824206675531</v>
       </c>
       <c r="F7">
-        <v>21.84215565483893</v>
+        <v>23.63507096209359</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>3.307213363231561</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.892422420231032</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.978571894833795</v>
+        <v>17.27721416034506</v>
       </c>
       <c r="L7">
-        <v>6.07722013819801</v>
+        <v>5.786848309065007</v>
       </c>
       <c r="M7">
-        <v>9.017932524154647</v>
+        <v>9.792347511338892</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.644993386155158</v>
       </c>
       <c r="O7">
-        <v>18.56341405613023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.76887900723296</v>
+      </c>
+      <c r="Q7">
+        <v>17.84846990161137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.73131650689224</v>
+        <v>13.47580027339519</v>
       </c>
       <c r="C8">
-        <v>8.275913837184774</v>
+        <v>6.692467768751791</v>
       </c>
       <c r="D8">
-        <v>5.42259680144492</v>
+        <v>5.419010436898775</v>
       </c>
       <c r="E8">
-        <v>8.297996308298405</v>
+        <v>7.700956998675726</v>
       </c>
       <c r="F8">
-        <v>22.15199960246247</v>
+        <v>23.94168586741966</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>3.063691470376812</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.708872247546337</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.73489951202987</v>
+        <v>17.24450824865999</v>
       </c>
       <c r="L8">
-        <v>6.173058662234416</v>
+        <v>5.841124890485304</v>
       </c>
       <c r="M8">
-        <v>9.425850947730948</v>
+        <v>10.67164188317746</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.891394450885358</v>
       </c>
       <c r="O8">
-        <v>18.54342505120558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.59634744546531</v>
+      </c>
+      <c r="Q8">
+        <v>17.90246844901785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.75640718404581</v>
+        <v>15.39336260000815</v>
       </c>
       <c r="C9">
-        <v>8.242081492137462</v>
+        <v>7.267685138316835</v>
       </c>
       <c r="D9">
-        <v>5.659290186710735</v>
+        <v>5.900025756693861</v>
       </c>
       <c r="E9">
-        <v>8.281971431907738</v>
+        <v>8.084533404221155</v>
       </c>
       <c r="F9">
-        <v>22.89225423572312</v>
+        <v>24.6199804214001</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.61923255431214</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.366976739450364</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.07955639102683</v>
+        <v>17.23418108365309</v>
       </c>
       <c r="L9">
-        <v>6.378626962773535</v>
+        <v>5.942473006250597</v>
       </c>
       <c r="M9">
-        <v>10.20703467699948</v>
+        <v>12.20879387567796</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.350493805464669</v>
       </c>
       <c r="O9">
-        <v>18.61696272542411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>13.27224587467548</v>
+      </c>
+      <c r="Q9">
+        <v>18.07475741199554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.09481203865877</v>
+        <v>16.61059754580515</v>
       </c>
       <c r="C10">
-        <v>8.2219641636531</v>
+        <v>7.693315450668157</v>
       </c>
       <c r="D10">
-        <v>5.825398113678491</v>
+        <v>6.196759543414911</v>
       </c>
       <c r="E10">
-        <v>8.291825945133622</v>
+        <v>8.268499930431492</v>
       </c>
       <c r="F10">
-        <v>23.51909655239621</v>
+        <v>25.01966048368936</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.340418655935139</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.144668561169292</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>12.98124568755143</v>
+        <v>17.18188861237474</v>
       </c>
       <c r="L10">
-        <v>6.539863344310948</v>
+        <v>5.988958368885214</v>
       </c>
       <c r="M10">
-        <v>10.76409188381759</v>
+        <v>13.20577866869544</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.600566777521152</v>
       </c>
       <c r="O10">
-        <v>18.74692229037501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>13.0389154342131</v>
+      </c>
+      <c r="Q10">
+        <v>18.1571665588501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.67195842441578</v>
+        <v>16.76694588532039</v>
       </c>
       <c r="C11">
-        <v>8.21387227096761</v>
+        <v>8.058154226765597</v>
       </c>
       <c r="D11">
-        <v>5.899125090880841</v>
+        <v>5.999857232892453</v>
       </c>
       <c r="E11">
-        <v>8.30133897073941</v>
+        <v>7.67485151883495</v>
       </c>
       <c r="F11">
-        <v>23.82256110577335</v>
+        <v>24.19499274997776</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.166372594462101</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.103415571492477</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.3725740876664</v>
+        <v>16.6601712653464</v>
       </c>
       <c r="L11">
-        <v>6.615308507248494</v>
+        <v>5.851224637258015</v>
       </c>
       <c r="M11">
-        <v>11.0129080540855</v>
+        <v>13.49432320711068</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.073949976934403</v>
       </c>
       <c r="O11">
-        <v>18.82405277026336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.92877259819308</v>
+      </c>
+      <c r="Q11">
+        <v>17.62243943152082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.88600998329611</v>
+        <v>16.66533392966873</v>
       </c>
       <c r="C12">
-        <v>8.210963364855346</v>
+        <v>8.265772736142997</v>
       </c>
       <c r="D12">
-        <v>5.926768332029452</v>
+        <v>5.765649656511934</v>
       </c>
       <c r="E12">
-        <v>8.305692404498743</v>
+        <v>7.207048185200876</v>
       </c>
       <c r="F12">
-        <v>23.94012112820189</v>
+        <v>23.431875110192</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.432287131155496</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.096366830135494</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>13.5180473540305</v>
+        <v>16.25441423161091</v>
       </c>
       <c r="L12">
-        <v>6.644168963245374</v>
+        <v>5.781710001332197</v>
       </c>
       <c r="M12">
-        <v>11.10640367294318</v>
+        <v>13.53634940406139</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.585214692147123</v>
       </c>
       <c r="O12">
-        <v>18.85597259178927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.89810182004933</v>
+      </c>
+      <c r="Q12">
+        <v>17.16813679477587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.84010941297528</v>
+        <v>16.33745341365224</v>
       </c>
       <c r="C13">
-        <v>8.211582891882289</v>
+        <v>8.386992348107993</v>
       </c>
       <c r="D13">
-        <v>5.920827293542797</v>
+        <v>5.486660893878616</v>
       </c>
       <c r="E13">
-        <v>8.304720965807505</v>
+        <v>6.814095243927719</v>
       </c>
       <c r="F13">
-        <v>23.91468471046534</v>
+        <v>22.63573733606876</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.795975196339918</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.129183140394683</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.48683776842911</v>
+        <v>15.89235015032892</v>
       </c>
       <c r="L13">
-        <v>6.637940569814983</v>
+        <v>5.7581495967044</v>
       </c>
       <c r="M13">
-        <v>11.08630092436547</v>
+        <v>13.39123586106949</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.100435734573855</v>
       </c>
       <c r="O13">
-        <v>18.84897553373623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.92279576120114</v>
+      </c>
+      <c r="Q13">
+        <v>16.72611342297106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.68965845225209</v>
+        <v>15.99702819831483</v>
       </c>
       <c r="C14">
-        <v>8.213629822753951</v>
+        <v>8.438450608513019</v>
       </c>
       <c r="D14">
-        <v>5.901404901951478</v>
+        <v>5.269506067565827</v>
       </c>
       <c r="E14">
-        <v>8.30168191794162</v>
+        <v>6.592239988665931</v>
       </c>
       <c r="F14">
-        <v>23.83217978537045</v>
+        <v>22.05956666933072</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.778483298169149</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.172905975896412</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.38459664925818</v>
+        <v>15.65837980885079</v>
       </c>
       <c r="L14">
-        <v>6.61767710154567</v>
+        <v>5.769359786041376</v>
       </c>
       <c r="M14">
-        <v>11.02061487621306</v>
+        <v>13.20274189599803</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.769614725083809</v>
       </c>
       <c r="O14">
-        <v>18.82662378288931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.96558800899509</v>
+      </c>
+      <c r="Q14">
+        <v>16.4205489950788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.59691842940452</v>
+        <v>15.85987083209005</v>
       </c>
       <c r="C15">
-        <v>8.214903946607704</v>
+        <v>8.437491930219547</v>
       </c>
       <c r="D15">
-        <v>5.88947191566543</v>
+        <v>5.207754470239768</v>
       </c>
       <c r="E15">
-        <v>8.299919052271218</v>
+        <v>6.544720071866789</v>
       </c>
       <c r="F15">
-        <v>23.78198781637399</v>
+        <v>21.90770576544287</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.009317383781603</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.196541179050266</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.32161757233618</v>
+        <v>15.60659920449904</v>
       </c>
       <c r="L15">
-        <v>6.605302731163682</v>
+        <v>5.774358065242435</v>
       </c>
       <c r="M15">
-        <v>10.98028400769232</v>
+        <v>13.11558522779037</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.689408107399391</v>
       </c>
       <c r="O15">
-        <v>18.81328949520423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.98620105174434</v>
+      </c>
+      <c r="Q15">
+        <v>16.34546782698107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.05646112078903</v>
+        <v>15.39423440253303</v>
       </c>
       <c r="C16">
-        <v>8.222514555057293</v>
+        <v>8.249542396888556</v>
       </c>
       <c r="D16">
-        <v>5.820541924008294</v>
+        <v>5.128008877208303</v>
       </c>
       <c r="E16">
-        <v>8.291307828241905</v>
+        <v>6.537766291265118</v>
       </c>
       <c r="F16">
-        <v>23.49963396702818</v>
+        <v>21.87560020213839</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.825439039452408</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.290015279535753</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>12.9552916125087</v>
+        <v>15.69612289762489</v>
       </c>
       <c r="L16">
-        <v>6.534974119918827</v>
+        <v>5.755108229052317</v>
       </c>
       <c r="M16">
-        <v>10.74773293908687</v>
+        <v>12.7263368382802</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.671580301727302</v>
       </c>
       <c r="O16">
-        <v>18.74225454605455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.07293522873828</v>
+      </c>
+      <c r="Q16">
+        <v>16.38919877251401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71682894974615</v>
+        <v>15.21972032378255</v>
       </c>
       <c r="C17">
-        <v>8.227456810275461</v>
+        <v>8.074865195194619</v>
       </c>
       <c r="D17">
-        <v>5.777776769140149</v>
+        <v>5.185432985228573</v>
       </c>
       <c r="E17">
-        <v>8.287333081854131</v>
+        <v>6.640183479996809</v>
       </c>
       <c r="F17">
-        <v>23.33111841737514</v>
+        <v>22.1592918985846</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.134868671730858</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.3392517858533</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>12.72572867265948</v>
+        <v>15.88720852820864</v>
       </c>
       <c r="L17">
-        <v>6.492359416315645</v>
+        <v>5.729871139310692</v>
       </c>
       <c r="M17">
-        <v>10.60384451179375</v>
+        <v>12.52642182141874</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.832299356259384</v>
       </c>
       <c r="O17">
-        <v>18.70337746063948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.11761000098527</v>
+      </c>
+      <c r="Q17">
+        <v>16.58512938789183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.51849415974317</v>
+        <v>15.29275357879232</v>
       </c>
       <c r="C18">
-        <v>8.230399003813277</v>
+        <v>7.883624619352989</v>
       </c>
       <c r="D18">
-        <v>5.753007160778013</v>
+        <v>5.366412030156138</v>
       </c>
       <c r="E18">
-        <v>8.285518696218729</v>
+        <v>6.903426428156132</v>
       </c>
       <c r="F18">
-        <v>23.23591588382547</v>
+        <v>22.7601304310573</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.971986772202301</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.344856322789424</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.59191509887441</v>
+        <v>16.20119574369732</v>
       </c>
       <c r="L18">
-        <v>6.468046657001317</v>
+        <v>5.724779756513223</v>
       </c>
       <c r="M18">
-        <v>10.52065472192323</v>
+        <v>12.47378157393255</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.180131713764861</v>
       </c>
       <c r="O18">
-        <v>18.68270448359748</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>13.13626428325706</v>
+      </c>
+      <c r="Q18">
+        <v>16.94380758193758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.45082661190638</v>
+        <v>15.53305050817752</v>
       </c>
       <c r="C19">
-        <v>8.231412190680599</v>
+        <v>7.725713752149415</v>
       </c>
       <c r="D19">
-        <v>5.744591384650766</v>
+        <v>5.635172352642911</v>
       </c>
       <c r="E19">
-        <v>8.28498456657635</v>
+        <v>7.342617961804248</v>
       </c>
       <c r="F19">
-        <v>23.20397747583251</v>
+        <v>23.54129319347277</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.653162991675857</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.330744694464712</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.54630348036601</v>
+        <v>16.57600804932905</v>
       </c>
       <c r="L19">
-        <v>6.459849128103815</v>
+        <v>5.77643150374636</v>
       </c>
       <c r="M19">
-        <v>10.49241657207053</v>
+        <v>12.54263026070724</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.678873047851138</v>
       </c>
       <c r="O19">
-        <v>18.6759911509609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>13.14081808032918</v>
+      </c>
+      <c r="Q19">
+        <v>17.38645150752028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.7532921441145</v>
+        <v>16.26039182558018</v>
       </c>
       <c r="C20">
-        <v>8.226920376400068</v>
+        <v>7.622871934120308</v>
       </c>
       <c r="D20">
-        <v>5.782347103769098</v>
+        <v>6.124055067258753</v>
       </c>
       <c r="E20">
-        <v>8.28770717290346</v>
+        <v>8.208850360351347</v>
       </c>
       <c r="F20">
-        <v>23.3488787495575</v>
+        <v>24.85025209294046</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.414566025268266</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.230254489817457</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.75034979670338</v>
+        <v>17.14792054067632</v>
       </c>
       <c r="L20">
-        <v>6.496875401192019</v>
+        <v>5.971664578194223</v>
       </c>
       <c r="M20">
-        <v>10.61920658352485</v>
+        <v>12.94748417460828</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.543056291229059</v>
       </c>
       <c r="O20">
-        <v>18.70734039116787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>13.09741668602614</v>
+      </c>
+      <c r="Q20">
+        <v>18.08910866427918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.73397124357296</v>
+        <v>17.2215633246286</v>
       </c>
       <c r="C21">
-        <v>8.213024349270711</v>
+        <v>7.905856593801944</v>
       </c>
       <c r="D21">
-        <v>5.907117294521707</v>
+        <v>6.403099159475752</v>
       </c>
       <c r="E21">
-        <v>8.30255395372429</v>
+        <v>8.476143649326835</v>
       </c>
       <c r="F21">
-        <v>23.85634163516648</v>
+        <v>25.35323458351896</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.165830468481929</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.0527818358132</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.41470099533426</v>
+        <v>17.20994222193649</v>
       </c>
       <c r="L21">
-        <v>6.623621158206299</v>
+        <v>6.041933290328869</v>
       </c>
       <c r="M21">
-        <v>11.03992862514433</v>
+        <v>13.70232647242854</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.845411906257659</v>
       </c>
       <c r="O21">
-        <v>18.83311446033481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.92412256925028</v>
+      </c>
+      <c r="Q21">
+        <v>18.27004492463311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.34869291031623</v>
+        <v>17.81652955160247</v>
       </c>
       <c r="C22">
-        <v>8.204849388444901</v>
+        <v>8.080808076166692</v>
       </c>
       <c r="D22">
-        <v>5.987051009919277</v>
+        <v>6.559346297128993</v>
       </c>
       <c r="E22">
-        <v>8.316648050109068</v>
+        <v>8.608808721217528</v>
       </c>
       <c r="F22">
-        <v>24.20341582147571</v>
+        <v>25.65097603939579</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.018517391680628</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.930827529951194</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>13.83307578360314</v>
+        <v>17.24386399925338</v>
       </c>
       <c r="L22">
-        <v>6.708148505424075</v>
+        <v>6.077259311908382</v>
       </c>
       <c r="M22">
-        <v>11.32854475446589</v>
+        <v>14.16768121479563</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.996707138466495</v>
       </c>
       <c r="O22">
-        <v>18.93117929962091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.8117345657137</v>
+      </c>
+      <c r="Q22">
+        <v>18.37776341390047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.02298308891672</v>
+        <v>17.51502997751891</v>
       </c>
       <c r="C23">
-        <v>8.209128485112574</v>
+        <v>7.973634301317246</v>
       </c>
       <c r="D23">
-        <v>5.944539806983622</v>
+        <v>6.474272744818481</v>
       </c>
       <c r="E23">
-        <v>8.308714744715259</v>
+        <v>8.541339766127397</v>
       </c>
       <c r="F23">
-        <v>24.0167621072757</v>
+        <v>25.51312853236746</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.095903055513624</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.984406728218727</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>13.61122757754885</v>
+        <v>17.24200379011549</v>
       </c>
       <c r="L23">
-        <v>6.662883274117701</v>
+        <v>6.060106790091916</v>
       </c>
       <c r="M23">
-        <v>11.16656523628615</v>
+        <v>13.92243532828483</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.912247840025956</v>
       </c>
       <c r="O23">
-        <v>18.87734872336283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.87233656022298</v>
+      </c>
+      <c r="Q23">
+        <v>18.33539705581416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.73681671846698</v>
+        <v>16.29902160719709</v>
       </c>
       <c r="C24">
-        <v>8.227162584326889</v>
+        <v>7.58146081250213</v>
       </c>
       <c r="D24">
-        <v>5.780281425697479</v>
+        <v>6.146823895624216</v>
       </c>
       <c r="E24">
-        <v>8.28753658215687</v>
+        <v>8.275473309375471</v>
       </c>
       <c r="F24">
-        <v>23.34084407362642</v>
+        <v>24.96589895351459</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.397276699023647</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.211967573985378</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.73922430113986</v>
+        <v>17.21675665613891</v>
       </c>
       <c r="L24">
-        <v>6.494833141144587</v>
+        <v>5.991007165879377</v>
       </c>
       <c r="M24">
-        <v>10.61226283860334</v>
+        <v>12.94986341346982</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.592432274380462</v>
       </c>
       <c r="O24">
-        <v>18.70554353302595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>13.10302320233417</v>
+      </c>
+      <c r="Q24">
+        <v>18.16147526006097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.23504567028222</v>
+        <v>14.87607457449196</v>
       </c>
       <c r="C25">
-        <v>8.250411371271946</v>
+        <v>7.139108960838223</v>
       </c>
       <c r="D25">
-        <v>5.5965728429143</v>
+        <v>5.776592763873753</v>
       </c>
       <c r="E25">
-        <v>8.282620005264221</v>
+        <v>7.97798785805847</v>
       </c>
       <c r="F25">
-        <v>22.67754061619492</v>
+        <v>24.39774687819135</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.737417559166437</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.471379021518099</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.73084988525617</v>
+        <v>17.20802580206249</v>
       </c>
       <c r="L25">
-        <v>6.321181912720331</v>
+        <v>5.913238669603671</v>
       </c>
       <c r="M25">
-        <v>9.998313749079987</v>
+        <v>11.8111488025023</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.235013688974283</v>
       </c>
       <c r="O25">
-        <v>18.58425212307806</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.35707728947045</v>
+      </c>
+      <c r="Q25">
+        <v>17.99893882859131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.7740116938228</v>
+        <v>13.39206601529689</v>
       </c>
       <c r="C2">
-        <v>6.758563427180435</v>
+        <v>6.684769561444003</v>
       </c>
       <c r="D2">
-        <v>5.485089707888142</v>
+        <v>5.570478468574982</v>
       </c>
       <c r="E2">
-        <v>7.758811757664406</v>
+        <v>7.697892475329331</v>
       </c>
       <c r="F2">
-        <v>24.05512400221954</v>
+        <v>23.33210427355939</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.998774714169519</v>
+        <v>2.860042255539296</v>
       </c>
       <c r="I2">
-        <v>3.650051398066773</v>
+        <v>3.471978589863699</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>17.25783673145582</v>
+        <v>16.53682142736462</v>
       </c>
       <c r="L2">
-        <v>5.85743774158844</v>
+        <v>13.22970868219545</v>
       </c>
       <c r="M2">
-        <v>10.89886812354853</v>
+        <v>11.22344088935785</v>
       </c>
       <c r="N2">
-        <v>6.951748640693491</v>
+        <v>5.792695675780329</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.92140668381815</v>
       </c>
       <c r="P2">
-        <v>13.5519370006867</v>
+        <v>7.157492954985453</v>
       </c>
       <c r="Q2">
-        <v>17.93932251398246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>13.36058658235426</v>
+      </c>
+      <c r="S2">
+        <v>17.35844996474713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.94724142800653</v>
+        <v>12.59529059252726</v>
       </c>
       <c r="C3">
-        <v>6.512277039192393</v>
+        <v>6.359323359604523</v>
       </c>
       <c r="D3">
-        <v>5.283577520317968</v>
+        <v>5.365205667085809</v>
       </c>
       <c r="E3">
-        <v>7.600811724460227</v>
+        <v>7.549889955831017</v>
       </c>
       <c r="F3">
-        <v>23.80433445717085</v>
+        <v>23.12976136688971</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.18607958428052</v>
+        <v>3.037237912332839</v>
       </c>
       <c r="I3">
-        <v>3.792161057918911</v>
+        <v>3.600692203938259</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>17.27670555462979</v>
+        <v>16.58644533193403</v>
       </c>
       <c r="L3">
-        <v>5.815386909916559</v>
+        <v>13.34641024923653</v>
       </c>
       <c r="M3">
-        <v>10.23040935673361</v>
+        <v>11.21440470476934</v>
       </c>
       <c r="N3">
-        <v>6.760847544968507</v>
+        <v>5.754261890162475</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.25958237105485</v>
       </c>
       <c r="P3">
-        <v>13.68583977886389</v>
+        <v>6.962393606433007</v>
       </c>
       <c r="Q3">
-        <v>17.88861910386805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>13.48775140694667</v>
+      </c>
+      <c r="S3">
+        <v>17.34103349951667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.41061823167693</v>
+        <v>12.07698710400031</v>
       </c>
       <c r="C4">
-        <v>6.357067032599219</v>
+        <v>6.153516048717941</v>
       </c>
       <c r="D4">
-        <v>5.156822251735826</v>
+        <v>5.236192916706329</v>
       </c>
       <c r="E4">
-        <v>7.501426693886616</v>
+        <v>7.456733144579077</v>
       </c>
       <c r="F4">
-        <v>23.65582799887668</v>
+        <v>23.01030534280073</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.305537926863658</v>
+        <v>3.150285891151946</v>
       </c>
       <c r="I4">
-        <v>3.883469868449513</v>
+        <v>3.683672122311864</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>17.29172748216284</v>
+        <v>16.61945297935728</v>
       </c>
       <c r="L4">
-        <v>5.788580702057112</v>
+        <v>13.41884522526679</v>
       </c>
       <c r="M4">
-        <v>9.796169658555348</v>
+        <v>11.2251848151778</v>
       </c>
       <c r="N4">
-        <v>6.641707907348724</v>
+        <v>5.729682876924159</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.829730458762084</v>
       </c>
       <c r="P4">
-        <v>13.76966808786345</v>
+        <v>6.840981297115148</v>
       </c>
       <c r="Q4">
-        <v>17.86262432940983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.56764784802916</v>
+      </c>
+      <c r="S4">
+        <v>17.33476229630571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.1799688520055</v>
+        <v>11.85370171958844</v>
       </c>
       <c r="C5">
-        <v>6.297080543403374</v>
+        <v>6.073226816253975</v>
       </c>
       <c r="D5">
-        <v>5.105130404335999</v>
+        <v>5.18359677059106</v>
       </c>
       <c r="E5">
-        <v>7.45943885641612</v>
+        <v>7.417310688553065</v>
       </c>
       <c r="F5">
-        <v>23.59073717066691</v>
+        <v>22.95688391758188</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.355657253056479</v>
+        <v>3.197736330754824</v>
       </c>
       <c r="I5">
-        <v>3.924191101256471</v>
+        <v>3.721400715631605</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>17.29433260186459</v>
+        <v>16.62926276303909</v>
       </c>
       <c r="L5">
-        <v>5.776930960363285</v>
+        <v>13.44442026314479</v>
       </c>
       <c r="M5">
-        <v>9.61282988993187</v>
+        <v>11.23137110834928</v>
       </c>
       <c r="N5">
-        <v>6.593909644773417</v>
+        <v>5.718957155595794</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.648264979928875</v>
       </c>
       <c r="P5">
-        <v>13.80384991044743</v>
+        <v>6.792331383763996</v>
       </c>
       <c r="Q5">
-        <v>17.84910798091292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.60036789678748</v>
+      </c>
+      <c r="S5">
+        <v>17.32913997761362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.13539074777033</v>
+        <v>11.81028762967146</v>
       </c>
       <c r="C6">
-        <v>6.2922667292056</v>
+        <v>6.065975060906799</v>
       </c>
       <c r="D6">
-        <v>5.097309481581325</v>
+        <v>5.175624712436623</v>
       </c>
       <c r="E6">
-        <v>7.451309673567941</v>
+        <v>7.409618645093877</v>
       </c>
       <c r="F6">
-        <v>23.57270386991448</v>
+        <v>22.94080663766842</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.36442258890006</v>
+        <v>3.206049881466971</v>
       </c>
       <c r="I6">
-        <v>3.934195107389637</v>
+        <v>3.731470112000876</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>17.28948074017323</v>
+        <v>16.62571716853735</v>
       </c>
       <c r="L6">
-        <v>5.774398594430393</v>
+        <v>13.44362528658435</v>
       </c>
       <c r="M6">
-        <v>9.581513261155678</v>
+        <v>11.22982522935906</v>
       </c>
       <c r="N6">
-        <v>6.587399406990057</v>
+        <v>5.716597150676589</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.617266872340679</v>
       </c>
       <c r="P6">
-        <v>13.80907533322431</v>
+        <v>6.785675223944751</v>
       </c>
       <c r="Q6">
-        <v>17.84181156187259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.6054665892006</v>
+      </c>
+      <c r="S6">
+        <v>17.32319379168716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.3919112303902</v>
+        <v>12.05824695507275</v>
       </c>
       <c r="C7">
-        <v>6.370328915661942</v>
+        <v>6.169091508197951</v>
       </c>
       <c r="D7">
-        <v>5.158290883528164</v>
+        <v>5.237644143919405</v>
       </c>
       <c r="E7">
-        <v>7.497824206675531</v>
+        <v>7.453194061315191</v>
       </c>
       <c r="F7">
-        <v>23.63507096209359</v>
+        <v>22.98980757838211</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.307213363231561</v>
+        <v>3.151910158489065</v>
       </c>
       <c r="I7">
-        <v>3.892422420231032</v>
+        <v>3.694063502116235</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>17.27721416034506</v>
+        <v>16.60540766396553</v>
       </c>
       <c r="L7">
-        <v>5.786848309065007</v>
+        <v>13.40574439223031</v>
       </c>
       <c r="M7">
-        <v>9.792347511338892</v>
+        <v>11.21723032701776</v>
       </c>
       <c r="N7">
-        <v>6.644993386155158</v>
+        <v>5.72801740633654</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.825938787416202</v>
       </c>
       <c r="P7">
-        <v>13.76887900723296</v>
+        <v>6.844232385727324</v>
       </c>
       <c r="Q7">
-        <v>17.84846990161137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.5671636875211</v>
+      </c>
+      <c r="S7">
+        <v>17.32087107961025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.47580027339519</v>
+        <v>13.10408019098875</v>
       </c>
       <c r="C8">
-        <v>6.692467768751791</v>
+        <v>6.595026942106495</v>
       </c>
       <c r="D8">
-        <v>5.419010436898775</v>
+        <v>5.503090589341748</v>
       </c>
       <c r="E8">
-        <v>7.700956998675726</v>
+        <v>7.643507020338444</v>
       </c>
       <c r="F8">
-        <v>23.94168586741966</v>
+        <v>23.23570119367927</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.063691470376812</v>
+        <v>2.921491765236074</v>
       </c>
       <c r="I8">
-        <v>3.708872247546337</v>
+        <v>3.528089076127769</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>17.24450824865999</v>
+        <v>16.53490321626863</v>
       </c>
       <c r="L8">
-        <v>5.841124890485304</v>
+        <v>13.25348223011096</v>
       </c>
       <c r="M8">
-        <v>10.67164188317746</v>
+        <v>11.2050432599935</v>
       </c>
       <c r="N8">
-        <v>6.891394450885358</v>
+        <v>5.77771212002548</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.69641386378192</v>
       </c>
       <c r="P8">
-        <v>13.59634744546531</v>
+        <v>7.095616374686657</v>
       </c>
       <c r="Q8">
-        <v>17.90246844901785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>13.40312572477061</v>
+      </c>
+      <c r="S8">
+        <v>17.33349071089053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.39336260000815</v>
+        <v>14.94748120718521</v>
       </c>
       <c r="C9">
-        <v>7.267685138316835</v>
+        <v>7.352639883941041</v>
       </c>
       <c r="D9">
-        <v>5.900025756693861</v>
+        <v>5.993608609523853</v>
       </c>
       <c r="E9">
-        <v>8.084533404221155</v>
+        <v>8.002732582104317</v>
       </c>
       <c r="F9">
-        <v>24.6199804214001</v>
+        <v>23.78992866686133</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.61923255431214</v>
+        <v>2.501202095751778</v>
       </c>
       <c r="I9">
-        <v>3.366976739450364</v>
+        <v>3.217506610071728</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>17.23418108365309</v>
+        <v>16.44237185511614</v>
       </c>
       <c r="L9">
-        <v>5.942473006250597</v>
+        <v>12.98227225453108</v>
       </c>
       <c r="M9">
-        <v>12.20879387567796</v>
+        <v>11.32722929649387</v>
       </c>
       <c r="N9">
-        <v>7.350493805464669</v>
+        <v>5.870028031328775</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.21854141249309</v>
       </c>
       <c r="P9">
-        <v>13.27224587467548</v>
+        <v>7.566670467193934</v>
       </c>
       <c r="Q9">
-        <v>18.07475741199554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>13.09676166719336</v>
+      </c>
+      <c r="S9">
+        <v>17.41879962159681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.61059754580515</v>
+        <v>16.11594894005502</v>
       </c>
       <c r="C10">
-        <v>7.693315450668157</v>
+        <v>7.899674349758999</v>
       </c>
       <c r="D10">
-        <v>6.196759543414911</v>
+        <v>6.296527490605497</v>
       </c>
       <c r="E10">
-        <v>8.268499930431492</v>
+        <v>8.171556034743038</v>
       </c>
       <c r="F10">
-        <v>25.01966048368936</v>
+        <v>24.10488438564126</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.340418655935139</v>
+        <v>2.2392952410995</v>
       </c>
       <c r="I10">
-        <v>3.144668561169292</v>
+        <v>3.018332309543629</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>17.18188861237474</v>
+        <v>16.33316249128161</v>
       </c>
       <c r="L10">
-        <v>5.988958368885214</v>
+        <v>12.74570111340576</v>
       </c>
       <c r="M10">
-        <v>13.20577866869544</v>
+        <v>11.45089677138617</v>
       </c>
       <c r="N10">
-        <v>7.600566777521152</v>
+        <v>5.912140933539263</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.20608466652422</v>
       </c>
       <c r="P10">
-        <v>13.0389154342131</v>
+        <v>7.825099347197903</v>
       </c>
       <c r="Q10">
-        <v>18.1571665588501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.88021112718418</v>
+      </c>
+      <c r="S10">
+        <v>17.44072468275964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.76694588532039</v>
+        <v>16.28829255650208</v>
       </c>
       <c r="C11">
-        <v>8.058154226765597</v>
+        <v>8.297935994969642</v>
       </c>
       <c r="D11">
-        <v>5.999857232892453</v>
+        <v>6.096112951900865</v>
       </c>
       <c r="E11">
-        <v>7.67485151883495</v>
+        <v>7.589939592311865</v>
       </c>
       <c r="F11">
-        <v>24.19499274997776</v>
+        <v>23.31165128060507</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.166372594462101</v>
+        <v>3.095241190948892</v>
       </c>
       <c r="I11">
-        <v>3.103415571492477</v>
+        <v>2.986294697934608</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>16.6601712653464</v>
+        <v>15.8520370021944</v>
       </c>
       <c r="L11">
-        <v>5.851224637258015</v>
+        <v>12.32967245375044</v>
       </c>
       <c r="M11">
-        <v>13.49432320711068</v>
+        <v>11.16739042986166</v>
       </c>
       <c r="N11">
-        <v>7.073949976934403</v>
+        <v>5.791572429217746</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.49436365644718</v>
       </c>
       <c r="P11">
-        <v>12.92877259819308</v>
+        <v>7.289481405164669</v>
       </c>
       <c r="Q11">
-        <v>17.62243943152082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.79718716077686</v>
+      </c>
+      <c r="S11">
+        <v>16.93253857396235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.66533392966873</v>
+        <v>16.21104978859009</v>
       </c>
       <c r="C12">
-        <v>8.265772736142997</v>
+        <v>8.502906852756253</v>
       </c>
       <c r="D12">
-        <v>5.765649656511934</v>
+        <v>5.85753771925792</v>
       </c>
       <c r="E12">
-        <v>7.207048185200876</v>
+        <v>7.136808336539999</v>
       </c>
       <c r="F12">
-        <v>23.431875110192</v>
+        <v>22.59355630319866</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.432287131155496</v>
+        <v>4.38122148483464</v>
       </c>
       <c r="I12">
-        <v>3.096366830135494</v>
+        <v>2.979571463305674</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>16.25441423161091</v>
+        <v>15.49239020830865</v>
       </c>
       <c r="L12">
-        <v>5.781710001332197</v>
+        <v>12.0549128975822</v>
       </c>
       <c r="M12">
-        <v>13.53634940406139</v>
+        <v>10.90847559299058</v>
       </c>
       <c r="N12">
-        <v>6.585214692147123</v>
+        <v>5.737175844174063</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.53806097056945</v>
       </c>
       <c r="P12">
-        <v>12.89810182004933</v>
+        <v>6.790596780808922</v>
       </c>
       <c r="Q12">
-        <v>17.16813679477587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.7836971001221</v>
+      </c>
+      <c r="S12">
+        <v>16.51374199257116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.33745341365224</v>
+        <v>15.9162266126028</v>
       </c>
       <c r="C13">
-        <v>8.386992348107993</v>
+        <v>8.597492561229492</v>
       </c>
       <c r="D13">
-        <v>5.486660893878616</v>
+        <v>5.573216740319685</v>
       </c>
       <c r="E13">
-        <v>6.814095243927719</v>
+        <v>6.761116905964824</v>
       </c>
       <c r="F13">
-        <v>22.63573733606876</v>
+        <v>21.85614587793977</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.795975196339918</v>
+        <v>5.754951563392136</v>
       </c>
       <c r="I13">
-        <v>3.129183140394683</v>
+        <v>3.008493506830212</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>15.89235015032892</v>
+        <v>15.1837150765439</v>
       </c>
       <c r="L13">
-        <v>5.7581495967044</v>
+        <v>11.84678507515463</v>
       </c>
       <c r="M13">
-        <v>13.39123586106949</v>
+        <v>10.64104102384732</v>
       </c>
       <c r="N13">
-        <v>6.100435734573855</v>
+        <v>5.72720649033843</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.39626627241786</v>
       </c>
       <c r="P13">
-        <v>12.92279576120114</v>
+        <v>6.294358096580919</v>
       </c>
       <c r="Q13">
-        <v>16.72611342297106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.81901443656484</v>
+      </c>
+      <c r="S13">
+        <v>16.11660675295908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.99702819831483</v>
+        <v>15.60329674406671</v>
       </c>
       <c r="C14">
-        <v>8.438450608513019</v>
+        <v>8.619531842689481</v>
       </c>
       <c r="D14">
-        <v>5.269506067565827</v>
+        <v>5.35188599094158</v>
       </c>
       <c r="E14">
-        <v>6.592239988665931</v>
+        <v>6.552179322781712</v>
       </c>
       <c r="F14">
-        <v>22.05956666933072</v>
+        <v>21.32713750953442</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.778483298169149</v>
+        <v>6.741548132884438</v>
       </c>
       <c r="I14">
-        <v>3.172905975896412</v>
+        <v>3.048150644974377</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>15.65837980885079</v>
+        <v>14.98979204359886</v>
       </c>
       <c r="L14">
-        <v>5.769359786041376</v>
+        <v>11.72639690785649</v>
       </c>
       <c r="M14">
-        <v>13.20274189599803</v>
+        <v>10.45288770194587</v>
       </c>
       <c r="N14">
-        <v>5.769614725083809</v>
+        <v>5.746675896737853</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.21087642488864</v>
       </c>
       <c r="P14">
-        <v>12.96558800899509</v>
+        <v>5.955027203358769</v>
       </c>
       <c r="Q14">
-        <v>16.4205489950788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.86597370682782</v>
+      </c>
+      <c r="S14">
+        <v>15.84643709762859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.85987083209005</v>
+        <v>15.47469804785994</v>
       </c>
       <c r="C15">
-        <v>8.437491930219547</v>
+        <v>8.60714280984757</v>
       </c>
       <c r="D15">
-        <v>5.207754470239768</v>
+        <v>5.288930311337737</v>
       </c>
       <c r="E15">
-        <v>6.544720071866789</v>
+        <v>6.508047183618225</v>
       </c>
       <c r="F15">
-        <v>21.90770576544287</v>
+        <v>21.18953221844541</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.009317383781603</v>
+        <v>6.972759542317819</v>
       </c>
       <c r="I15">
-        <v>3.196541179050266</v>
+        <v>3.070630175214278</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>15.60659920449904</v>
+        <v>14.94922216580696</v>
       </c>
       <c r="L15">
-        <v>5.774358065242435</v>
+        <v>11.70537075170053</v>
       </c>
       <c r="M15">
-        <v>13.11558522779037</v>
+        <v>10.40465874090442</v>
       </c>
       <c r="N15">
-        <v>5.689408107399391</v>
+        <v>5.753347654675165</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.12484674903001</v>
       </c>
       <c r="P15">
-        <v>12.98620105174434</v>
+        <v>5.872684906298921</v>
       </c>
       <c r="Q15">
-        <v>16.34546782698107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.88647028216129</v>
+      </c>
+      <c r="S15">
+        <v>15.78185607433382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.39423440253303</v>
+        <v>15.02519384175427</v>
       </c>
       <c r="C16">
-        <v>8.249542396888556</v>
+        <v>8.376042244650083</v>
       </c>
       <c r="D16">
-        <v>5.128008877208303</v>
+        <v>5.207572367920582</v>
       </c>
       <c r="E16">
-        <v>6.537766291265118</v>
+        <v>6.503095214375969</v>
       </c>
       <c r="F16">
-        <v>21.87560020213839</v>
+        <v>21.18173784145982</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.825439039452408</v>
+        <v>6.783642412397402</v>
       </c>
       <c r="I16">
-        <v>3.290015279535753</v>
+        <v>3.155978874347273</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>15.69612289762489</v>
+        <v>15.05034141080745</v>
       </c>
       <c r="L16">
-        <v>5.755108229052317</v>
+        <v>11.81272151414291</v>
       </c>
       <c r="M16">
-        <v>12.7263368382802</v>
+        <v>10.415000326697</v>
       </c>
       <c r="N16">
-        <v>5.671580301727302</v>
+        <v>5.731713845286468</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.73904429280688</v>
       </c>
       <c r="P16">
-        <v>13.07293522873828</v>
+        <v>5.854739412445281</v>
       </c>
       <c r="Q16">
-        <v>16.38919877251401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.96233991634701</v>
+      </c>
+      <c r="S16">
+        <v>15.84184848807941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.21972032378255</v>
+        <v>14.84779992082819</v>
       </c>
       <c r="C17">
-        <v>8.074865195194619</v>
+        <v>8.183931188958326</v>
       </c>
       <c r="D17">
-        <v>5.185432985228573</v>
+        <v>5.265996437541463</v>
       </c>
       <c r="E17">
-        <v>6.640183479996809</v>
+        <v>6.600578797808742</v>
       </c>
       <c r="F17">
-        <v>22.1592918985846</v>
+        <v>21.45905447815598</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.134868671730858</v>
+        <v>6.08575276478111</v>
       </c>
       <c r="I17">
-        <v>3.3392517858533</v>
+        <v>3.201236444204784</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>15.88720852820864</v>
+        <v>15.22974303269142</v>
       </c>
       <c r="L17">
-        <v>5.729871139310692</v>
+        <v>11.96511262521975</v>
       </c>
       <c r="M17">
-        <v>12.52642182141874</v>
+        <v>10.51861882346465</v>
       </c>
       <c r="N17">
-        <v>5.832299356259384</v>
+        <v>5.700726562107215</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.54009619654008</v>
       </c>
       <c r="P17">
-        <v>13.11761000098527</v>
+        <v>6.019625782023065</v>
       </c>
       <c r="Q17">
-        <v>16.58512938789183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.99698214551386</v>
+      </c>
+      <c r="S17">
+        <v>16.0316442022179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.29275357879232</v>
+        <v>14.90143540150359</v>
       </c>
       <c r="C18">
-        <v>7.883624619352989</v>
+        <v>7.993457214607161</v>
       </c>
       <c r="D18">
-        <v>5.366412030156138</v>
+        <v>5.450311486919814</v>
       </c>
       <c r="E18">
-        <v>6.903426428156132</v>
+        <v>6.85242788642767</v>
       </c>
       <c r="F18">
-        <v>22.7601304310573</v>
+        <v>22.02648483335744</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.971986772202301</v>
+        <v>4.910648005802137</v>
       </c>
       <c r="I18">
-        <v>3.344856322789424</v>
+        <v>3.204387239594379</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>16.20119574369732</v>
+        <v>15.51027698781427</v>
       </c>
       <c r="L18">
-        <v>5.724779756513223</v>
+        <v>12.18827411705227</v>
       </c>
       <c r="M18">
-        <v>12.47378157393255</v>
+        <v>10.71626822694558</v>
       </c>
       <c r="N18">
-        <v>6.180131713764861</v>
+        <v>5.685673048921648</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.48632142156028</v>
       </c>
       <c r="P18">
-        <v>13.13626428325706</v>
+        <v>6.375273511935409</v>
       </c>
       <c r="Q18">
-        <v>16.94380758193758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13.00403206932564</v>
+      </c>
+      <c r="S18">
+        <v>16.36422739013676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.53305050817752</v>
+        <v>15.11100233615294</v>
       </c>
       <c r="C19">
-        <v>7.725713752149415</v>
+        <v>7.852074924703283</v>
       </c>
       <c r="D19">
-        <v>5.635172352642911</v>
+        <v>5.724030277627925</v>
       </c>
       <c r="E19">
-        <v>7.342617961804248</v>
+        <v>7.27616074935669</v>
       </c>
       <c r="F19">
-        <v>23.54129319347277</v>
+        <v>22.75505481827725</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.653162991675857</v>
+        <v>3.572075726597035</v>
       </c>
       <c r="I19">
-        <v>3.330744694464712</v>
+        <v>3.19307756121292</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>16.57600804932905</v>
+        <v>15.83673288585505</v>
       </c>
       <c r="L19">
-        <v>5.77643150374636</v>
+        <v>12.44118434603401</v>
       </c>
       <c r="M19">
-        <v>12.54263026070724</v>
+        <v>10.96139386570635</v>
       </c>
       <c r="N19">
-        <v>6.678873047851138</v>
+        <v>5.723925516634627</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.55242311784363</v>
       </c>
       <c r="P19">
-        <v>13.14081808032918</v>
+        <v>6.884063948031352</v>
       </c>
       <c r="Q19">
-        <v>17.38645150752028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.99600703759785</v>
+      </c>
+      <c r="S19">
+        <v>16.76672206084349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.26039182558018</v>
+        <v>15.77855363951862</v>
       </c>
       <c r="C20">
-        <v>7.622871934120308</v>
+        <v>7.804257866615158</v>
       </c>
       <c r="D20">
-        <v>6.124055067258753</v>
+        <v>6.222179925201067</v>
       </c>
       <c r="E20">
-        <v>8.208850360351347</v>
+        <v>8.11603291328233</v>
       </c>
       <c r="F20">
-        <v>24.85025209294046</v>
+        <v>23.9587656616085</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.414566025268266</v>
+        <v>2.308916768605159</v>
       </c>
       <c r="I20">
-        <v>3.230254489817457</v>
+        <v>3.103272159524277</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>17.14792054067632</v>
+        <v>16.31667780971548</v>
       </c>
       <c r="L20">
-        <v>5.971664578194223</v>
+        <v>12.77412890036942</v>
       </c>
       <c r="M20">
-        <v>12.94748417460828</v>
+        <v>11.37914789876944</v>
       </c>
       <c r="N20">
-        <v>7.543056291229059</v>
+        <v>5.896307472770594</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.95025022085631</v>
       </c>
       <c r="P20">
-        <v>13.09741668602614</v>
+        <v>7.765315420951946</v>
       </c>
       <c r="Q20">
-        <v>18.08910866427918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.93577151314789</v>
+      </c>
+      <c r="S20">
+        <v>17.3898246567765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.2215633246286</v>
+        <v>16.6962174235134</v>
       </c>
       <c r="C21">
-        <v>7.905856593801944</v>
+        <v>8.178282425569845</v>
       </c>
       <c r="D21">
-        <v>6.403099159475752</v>
+        <v>6.507015073307672</v>
       </c>
       <c r="E21">
-        <v>8.476143649326835</v>
+        <v>8.368772700557248</v>
       </c>
       <c r="F21">
-        <v>25.35323458351896</v>
+        <v>24.38400318558741</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.165830468481929</v>
+        <v>2.072934452439518</v>
       </c>
       <c r="I21">
-        <v>3.0527818358132</v>
+        <v>2.943403954519583</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>17.20994222193649</v>
+        <v>16.32162446265124</v>
       </c>
       <c r="L21">
-        <v>6.041933290328869</v>
+        <v>12.6583400176024</v>
       </c>
       <c r="M21">
-        <v>13.70232647242854</v>
+        <v>11.56202655614826</v>
       </c>
       <c r="N21">
-        <v>7.845411906257659</v>
+        <v>5.959904468215759</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.69744712835605</v>
       </c>
       <c r="P21">
-        <v>12.92412256925028</v>
+        <v>8.076523822309577</v>
       </c>
       <c r="Q21">
-        <v>18.27004492463311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.77227245348732</v>
+      </c>
+      <c r="S21">
+        <v>17.513812902771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.81652955160247</v>
+        <v>17.26546261325606</v>
       </c>
       <c r="C22">
-        <v>8.080808076166692</v>
+        <v>8.407030285613988</v>
       </c>
       <c r="D22">
-        <v>6.559346297128993</v>
+        <v>6.666612686310271</v>
       </c>
       <c r="E22">
-        <v>8.608808721217528</v>
+        <v>8.493083831451257</v>
       </c>
       <c r="F22">
-        <v>25.65097603939579</v>
+        <v>24.63478705726785</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.018517391680628</v>
+        <v>1.933824396247159</v>
       </c>
       <c r="I22">
-        <v>2.930827529951194</v>
+        <v>2.830365395366374</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>17.24386399925338</v>
+        <v>16.32041331708137</v>
       </c>
       <c r="L22">
-        <v>6.077259311908382</v>
+        <v>12.57649424216342</v>
       </c>
       <c r="M22">
-        <v>14.16768121479563</v>
+        <v>11.69000639325244</v>
       </c>
       <c r="N22">
-        <v>7.996707138466495</v>
+        <v>5.991863342480285</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.15817761404342</v>
       </c>
       <c r="P22">
-        <v>12.8117345657137</v>
+        <v>8.232967606744278</v>
       </c>
       <c r="Q22">
-        <v>18.37776341390047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.66700840641056</v>
+      </c>
+      <c r="S22">
+        <v>17.58671399441177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.51502997751891</v>
+        <v>16.97766441277843</v>
       </c>
       <c r="C23">
-        <v>7.973634301317246</v>
+        <v>8.269177665283319</v>
       </c>
       <c r="D23">
-        <v>6.474272744818481</v>
+        <v>6.579756597318977</v>
       </c>
       <c r="E23">
-        <v>8.541339766127397</v>
+        <v>8.430014398981724</v>
       </c>
       <c r="F23">
-        <v>25.51312853236746</v>
+        <v>24.52174921610599</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.095903055513624</v>
+        <v>2.006872047301172</v>
       </c>
       <c r="I23">
-        <v>2.984406728218727</v>
+        <v>2.8770009490771</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>17.24200379011549</v>
+        <v>16.33660025961236</v>
       </c>
       <c r="L23">
-        <v>6.060106790091916</v>
+        <v>12.63125470700818</v>
       </c>
       <c r="M23">
-        <v>13.92243532828483</v>
+        <v>11.63350195736175</v>
       </c>
       <c r="N23">
-        <v>7.912247840025956</v>
+        <v>5.976407054340408</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.91537675006023</v>
       </c>
       <c r="P23">
-        <v>12.87233656022298</v>
+        <v>8.145740773297018</v>
       </c>
       <c r="Q23">
-        <v>18.33539705581416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.72316594770206</v>
+      </c>
+      <c r="S23">
+        <v>17.56263467756031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.29902160719709</v>
+        <v>15.81443787021898</v>
       </c>
       <c r="C24">
-        <v>7.58146081250213</v>
+        <v>7.759523030452613</v>
       </c>
       <c r="D24">
-        <v>6.146823895624216</v>
+        <v>6.245429063230963</v>
       </c>
       <c r="E24">
-        <v>8.275473309375471</v>
+        <v>8.181204671755884</v>
       </c>
       <c r="F24">
-        <v>24.96589895351459</v>
+        <v>24.06893415303986</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.397276699023647</v>
+        <v>2.291505472429541</v>
       </c>
       <c r="I24">
-        <v>3.211967573985378</v>
+        <v>3.08174078964365</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>17.21675665613891</v>
+        <v>16.37931577122702</v>
       </c>
       <c r="L24">
-        <v>5.991007165879377</v>
+        <v>12.82313213762222</v>
       </c>
       <c r="M24">
-        <v>12.94986341346982</v>
+        <v>11.42538860696882</v>
       </c>
       <c r="N24">
-        <v>7.592432274380462</v>
+        <v>5.913930439415314</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.95238281077055</v>
       </c>
       <c r="P24">
-        <v>13.10302320233417</v>
+        <v>7.81565990319392</v>
       </c>
       <c r="Q24">
-        <v>18.16147526006097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.93864382922033</v>
+      </c>
+      <c r="S24">
+        <v>17.45770372182247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87607457449196</v>
+        <v>14.44999322671199</v>
       </c>
       <c r="C25">
-        <v>7.139108960838223</v>
+        <v>7.180624684445386</v>
       </c>
       <c r="D25">
-        <v>5.776592763873753</v>
+        <v>5.867602329247203</v>
       </c>
       <c r="E25">
-        <v>7.97798785805847</v>
+        <v>7.90272936447618</v>
       </c>
       <c r="F25">
-        <v>24.39774687819135</v>
+        <v>23.60198381367423</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.737417559166437</v>
+        <v>2.61297102652517</v>
       </c>
       <c r="I25">
-        <v>3.471379021518099</v>
+        <v>3.316348330448541</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>17.20802580206249</v>
+        <v>16.44025744442227</v>
       </c>
       <c r="L25">
-        <v>5.913238669603671</v>
+        <v>13.03508889616371</v>
       </c>
       <c r="M25">
-        <v>11.8111488025023</v>
+        <v>11.26232862672226</v>
       </c>
       <c r="N25">
-        <v>7.235013688974283</v>
+        <v>5.84335841846127</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.82475651744577</v>
       </c>
       <c r="P25">
-        <v>13.35707728947045</v>
+        <v>7.447757848551737</v>
       </c>
       <c r="Q25">
-        <v>17.99893882859131</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.17736949234665</v>
+      </c>
+      <c r="S25">
+        <v>17.36751032197217</v>
       </c>
     </row>
   </sheetData>
